--- a/JupyterNotebooks/AvgHW/GossF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9609230383288436</v>
+      </c>
+      <c r="D3">
+        <v>1.196165929180897</v>
+      </c>
+      <c r="E3">
         <v>1.075517402241925</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>0.9562745039752695</v>
+      </c>
+      <c r="G3">
         <v>1.130506158330388</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>1.029296193134856</v>
       </c>
-      <c r="F3">
+      <c r="I3">
+        <v>1.130506158330388</v>
+      </c>
+      <c r="J3">
         <v>1.075517402241925</v>
-      </c>
-      <c r="G3">
-        <v>1.196165929180897</v>
-      </c>
-      <c r="H3">
-        <v>0.9609230383288436</v>
-      </c>
-      <c r="I3">
-        <v>0.9562745039752695</v>
-      </c>
-      <c r="J3">
-        <v>1.130506158330388</v>
       </c>
       <c r="K3">
         <v>1.075517402241925</v>
@@ -653,16 +665,16 @@
         <v>1.040241796598029</v>
       </c>
       <c r="P3">
-        <v>1.078439917902389</v>
+        <v>1.07843991790239</v>
       </c>
       <c r="Q3">
         <v>1.07843991790239</v>
       </c>
       <c r="R3">
-        <v>1.077709288987273</v>
+        <v>1.077709288987274</v>
       </c>
       <c r="S3">
-        <v>1.077709288987273</v>
+        <v>1.077709288987274</v>
       </c>
       <c r="T3">
         <v>1.058113870865363</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9040874250574215</v>
+      </c>
+      <c r="D4">
+        <v>1.427852674521916</v>
+      </c>
+      <c r="E4">
         <v>1.103969556861851</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>0.9586205680769918</v>
+      </c>
+      <c r="G4">
         <v>1.204465782221185</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>1.060006336512867</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>1.204465782221185</v>
+      </c>
+      <c r="J4">
         <v>1.103969556861851</v>
-      </c>
-      <c r="G4">
-        <v>1.427852674521916</v>
-      </c>
-      <c r="H4">
-        <v>0.9040874250574215</v>
-      </c>
-      <c r="I4">
-        <v>0.9586205680769918</v>
-      </c>
-      <c r="J4">
-        <v>1.204465782221185</v>
       </c>
       <c r="K4">
         <v>1.103969556861851</v>
@@ -721,10 +733,10 @@
         <v>1.122813891865301</v>
       </c>
       <c r="R4">
-        <v>1.118102808114438</v>
+        <v>1.118102808114439</v>
       </c>
       <c r="S4">
-        <v>1.118102808114438</v>
+        <v>1.118102808114439</v>
       </c>
       <c r="T4">
         <v>1.109833723875372</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.7629082447263449</v>
+      </c>
+      <c r="D5">
+        <v>1.918670222849598</v>
+      </c>
+      <c r="E5">
         <v>1.275125397922194</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>0.8035501848167851</v>
+      </c>
+      <c r="G5">
         <v>1.456267793445341</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.372887266745037</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <v>1.456267793445341</v>
+      </c>
+      <c r="J5">
         <v>1.275125397922194</v>
-      </c>
-      <c r="G5">
-        <v>1.918670222849598</v>
-      </c>
-      <c r="H5">
-        <v>0.7629082447263449</v>
-      </c>
-      <c r="I5">
-        <v>0.8035501848167851</v>
-      </c>
-      <c r="J5">
-        <v>1.456267793445341</v>
       </c>
       <c r="K5">
         <v>1.275125397922194</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.3868278825774976</v>
+      </c>
+      <c r="D6">
+        <v>2.218885252296807</v>
+      </c>
+      <c r="E6">
         <v>2.238600064254573</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>0.6750029706574739</v>
+      </c>
+      <c r="G6">
         <v>3.277579610696109</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>0.7246722476480973</v>
       </c>
-      <c r="F6">
+      <c r="I6">
+        <v>3.277579610696109</v>
+      </c>
+      <c r="J6">
         <v>2.238600064254573</v>
-      </c>
-      <c r="G6">
-        <v>2.218885252296807</v>
-      </c>
-      <c r="H6">
-        <v>0.3868278825774976</v>
-      </c>
-      <c r="I6">
-        <v>0.6750029706574739</v>
-      </c>
-      <c r="J6">
-        <v>3.277579610696109</v>
       </c>
       <c r="K6">
         <v>2.238600064254573</v>
@@ -862,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9993406573365448</v>
+      </c>
+      <c r="D7">
+        <v>0.9972897873623754</v>
+      </c>
+      <c r="E7">
         <v>1.02561603555661</v>
       </c>
-      <c r="D7">
-        <v>1.007650245354307</v>
-      </c>
-      <c r="E7">
-        <v>0.9986877379829663</v>
-      </c>
       <c r="F7">
+        <v>0.9988439323883261</v>
+      </c>
+      <c r="G7">
+        <v>1.007650245354308</v>
+      </c>
+      <c r="H7">
+        <v>0.9986877379829672</v>
+      </c>
+      <c r="I7">
+        <v>1.007650245354308</v>
+      </c>
+      <c r="J7">
         <v>1.02561603555661</v>
-      </c>
-      <c r="G7">
-        <v>0.9972897873623759</v>
-      </c>
-      <c r="H7">
-        <v>0.9993406573365426</v>
-      </c>
-      <c r="I7">
-        <v>0.9988439323883264</v>
-      </c>
-      <c r="J7">
-        <v>1.007650245354307</v>
       </c>
       <c r="K7">
         <v>1.02561603555661</v>
       </c>
       <c r="L7">
-        <v>0.9986877379829663</v>
+        <v>0.9986877379829672</v>
       </c>
       <c r="M7">
         <v>1.003168991668637</v>
@@ -898,13 +910,13 @@
         <v>1.003168991668637</v>
       </c>
       <c r="O7">
-        <v>1.001892880224605</v>
+        <v>1.001892880224607</v>
       </c>
       <c r="P7">
         <v>1.010651339631295</v>
       </c>
       <c r="Q7">
-        <v>1.010651339631294</v>
+        <v>1.010651339631295</v>
       </c>
       <c r="R7">
         <v>1.014392513612624</v>
@@ -913,7 +925,7 @@
         <v>1.014392513612624</v>
       </c>
       <c r="T7">
-        <v>1.004571399330188</v>
+        <v>1.004571399330189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +936,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.052501816553486</v>
+        <v>0.998453839946137</v>
       </c>
       <c r="D8">
+        <v>0.9942855706811037</v>
+      </c>
+      <c r="E8">
+        <v>1.052501816553491</v>
+      </c>
+      <c r="F8">
+        <v>1.000271296349319</v>
+      </c>
+      <c r="G8">
         <v>1.03287941147511</v>
       </c>
-      <c r="E8">
-        <v>0.9926410730429103</v>
-      </c>
-      <c r="F8">
-        <v>1.052501816553486</v>
-      </c>
-      <c r="G8">
-        <v>0.994285570681103</v>
-      </c>
       <c r="H8">
-        <v>0.9984538399461382</v>
+        <v>0.9926410730429109</v>
       </c>
       <c r="I8">
-        <v>1.000271296349319</v>
+        <v>1.03287941147511</v>
       </c>
       <c r="J8">
-        <v>1.03287941147511</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="K8">
-        <v>1.052501816553486</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="L8">
-        <v>0.9926410730429103</v>
+        <v>0.9926410730429109</v>
       </c>
       <c r="M8">
-        <v>1.01276024225901</v>
+        <v>1.012760242259011</v>
       </c>
       <c r="N8">
-        <v>1.01276024225901</v>
+        <v>1.012760242259011</v>
       </c>
       <c r="O8">
         <v>1.007991441488053</v>
       </c>
       <c r="P8">
-        <v>1.026007433690502</v>
+        <v>1.026007433690504</v>
       </c>
       <c r="Q8">
-        <v>1.026007433690502</v>
+        <v>1.026007433690504</v>
       </c>
       <c r="R8">
-        <v>1.032631029406248</v>
+        <v>1.032631029406251</v>
       </c>
       <c r="S8">
-        <v>1.032631029406248</v>
+        <v>1.032631029406251</v>
       </c>
       <c r="T8">
-        <v>1.011838834674678</v>
+        <v>1.011838834674679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,34 +998,34 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.002107941126507</v>
+      </c>
+      <c r="D9">
+        <v>0.9560578556864886</v>
+      </c>
+      <c r="E9">
         <v>1.07257752020572</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>0.9968486217955252</v>
+      </c>
+      <c r="G9">
         <v>1.100568736114495</v>
       </c>
-      <c r="E9">
-        <v>0.9814066430998974</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
+        <v>0.9814066430998976</v>
+      </c>
+      <c r="I9">
+        <v>1.100568736114495</v>
+      </c>
+      <c r="J9">
         <v>1.07257752020572</v>
-      </c>
-      <c r="G9">
-        <v>0.9560578556864886</v>
-      </c>
-      <c r="H9">
-        <v>1.002107941126507</v>
-      </c>
-      <c r="I9">
-        <v>0.9968486217955252</v>
-      </c>
-      <c r="J9">
-        <v>1.100568736114495</v>
       </c>
       <c r="K9">
         <v>1.07257752020572</v>
       </c>
       <c r="L9">
-        <v>0.9814066430998974</v>
+        <v>0.9814066430998976</v>
       </c>
       <c r="M9">
         <v>1.040987689607196</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9919229015534577</v>
+      </c>
+      <c r="D10">
+        <v>0.9745599959497731</v>
+      </c>
+      <c r="E10">
         <v>1.166535673079423</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>0.9855617477438049</v>
+      </c>
+      <c r="G10">
         <v>1.147242143635425</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>0.9773479108030551</v>
       </c>
-      <c r="F10">
+      <c r="I10">
+        <v>1.147242143635425</v>
+      </c>
+      <c r="J10">
         <v>1.166535673079423</v>
-      </c>
-      <c r="G10">
-        <v>0.9745599959497731</v>
-      </c>
-      <c r="H10">
-        <v>0.9919229015534577</v>
-      </c>
-      <c r="I10">
-        <v>0.9855617477438051</v>
-      </c>
-      <c r="J10">
-        <v>1.147242143635425</v>
       </c>
       <c r="K10">
         <v>1.166535673079423</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9764647188484443</v>
+      </c>
+      <c r="D11">
+        <v>0.9107505266245541</v>
+      </c>
+      <c r="E11">
         <v>1.40062905144651</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>0.9399200495136247</v>
+      </c>
+      <c r="G11">
         <v>1.444134677132659</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.001974548398665</v>
       </c>
-      <c r="F11">
+      <c r="I11">
+        <v>1.444134677132659</v>
+      </c>
+      <c r="J11">
         <v>1.40062905144651</v>
-      </c>
-      <c r="G11">
-        <v>0.9107505266245541</v>
-      </c>
-      <c r="H11">
-        <v>0.9764647188484441</v>
-      </c>
-      <c r="I11">
-        <v>0.9399200495136247</v>
-      </c>
-      <c r="J11">
-        <v>1.444134677132659</v>
       </c>
       <c r="K11">
         <v>1.40062905144651</v>
@@ -1172,55 +1184,55 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.7438671392546355</v>
+      </c>
+      <c r="D12">
+        <v>0.04493336651283013</v>
+      </c>
+      <c r="E12">
         <v>0.04323703425380294</v>
       </c>
-      <c r="D12">
-        <v>0.00230386801961691</v>
-      </c>
-      <c r="E12">
-        <v>1.47804037554657</v>
-      </c>
       <c r="F12">
+        <v>1.437118756671864</v>
+      </c>
+      <c r="G12">
+        <v>0.002303868019616903</v>
+      </c>
+      <c r="H12">
+        <v>1.478040375546571</v>
+      </c>
+      <c r="I12">
+        <v>0.002303868019616903</v>
+      </c>
+      <c r="J12">
         <v>0.04323703425380294</v>
-      </c>
-      <c r="G12">
-        <v>0.04493336651283013</v>
-      </c>
-      <c r="H12">
-        <v>0.7438671392546359</v>
-      </c>
-      <c r="I12">
-        <v>1.437118756671865</v>
-      </c>
-      <c r="J12">
-        <v>0.00230386801961691</v>
       </c>
       <c r="K12">
         <v>0.04323703425380294</v>
       </c>
       <c r="L12">
-        <v>1.47804037554657</v>
+        <v>1.478040375546571</v>
       </c>
       <c r="M12">
-        <v>0.7401721217830936</v>
+        <v>0.7401721217830941</v>
       </c>
       <c r="N12">
-        <v>0.7401721217830936</v>
+        <v>0.7401721217830941</v>
       </c>
       <c r="O12">
-        <v>0.7414037942736077</v>
+        <v>0.7414037942736079</v>
       </c>
       <c r="P12">
-        <v>0.5078604259399967</v>
+        <v>0.507860425939997</v>
       </c>
       <c r="Q12">
-        <v>0.5078604259399967</v>
+        <v>0.5078604259399971</v>
       </c>
       <c r="R12">
-        <v>0.3917045780184482</v>
+        <v>0.3917045780184485</v>
       </c>
       <c r="S12">
-        <v>0.3917045780184482</v>
+        <v>0.3917045780184485</v>
       </c>
       <c r="T12">
         <v>0.6249167567098869</v>
@@ -1234,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.253314960072905</v>
+      </c>
+      <c r="D13">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="E13">
         <v>2.195642819680748</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>0.4768826445781498</v>
+      </c>
+      <c r="G13">
         <v>2.359723982081764</v>
       </c>
-      <c r="E13">
-        <v>0.06129398204738203</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
+        <v>0.06129398204738225</v>
+      </c>
+      <c r="I13">
+        <v>2.359723982081764</v>
+      </c>
+      <c r="J13">
         <v>2.195642819680748</v>
-      </c>
-      <c r="G13">
-        <v>2.989604547419958</v>
-      </c>
-      <c r="H13">
-        <v>1.253314960072905</v>
-      </c>
-      <c r="I13">
-        <v>0.4768826445781498</v>
-      </c>
-      <c r="J13">
-        <v>2.359723982081764</v>
       </c>
       <c r="K13">
         <v>2.195642819680748</v>
       </c>
       <c r="L13">
-        <v>0.06129398204738203</v>
+        <v>0.06129398204738225</v>
       </c>
       <c r="M13">
         <v>1.210508982064573</v>
@@ -1270,19 +1282,19 @@
         <v>1.210508982064573</v>
       </c>
       <c r="O13">
-        <v>1.224777641400683</v>
+        <v>1.224777641400684</v>
       </c>
       <c r="P13">
-        <v>1.538886927936631</v>
+        <v>1.538886927936632</v>
       </c>
       <c r="Q13">
-        <v>1.538886927936631</v>
+        <v>1.538886927936632</v>
       </c>
       <c r="R13">
-        <v>1.70307590087266</v>
+        <v>1.703075900872661</v>
       </c>
       <c r="S13">
-        <v>1.70307590087266</v>
+        <v>1.703075900872661</v>
       </c>
       <c r="T13">
         <v>1.556077155980151</v>
@@ -1296,49 +1308,49 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.389801868053286E-05</v>
+        <v>2.225291216432352</v>
       </c>
       <c r="D14">
-        <v>7.670671026192246</v>
+        <v>-0.0001223677793042235</v>
       </c>
       <c r="E14">
-        <v>0.001994453787480646</v>
+        <v>5.38980186805323E-05</v>
       </c>
       <c r="F14">
-        <v>5.389801868053286E-05</v>
+        <v>0.002627192334961447</v>
       </c>
       <c r="G14">
-        <v>-0.0001223677793042244</v>
+        <v>7.670671026192249</v>
       </c>
       <c r="H14">
-        <v>2.22529121643235</v>
+        <v>0.001994453787480644</v>
       </c>
       <c r="I14">
-        <v>0.00262719233496145</v>
+        <v>7.670671026192249</v>
       </c>
       <c r="J14">
-        <v>7.670671026192246</v>
+        <v>5.38980186805323E-05</v>
       </c>
       <c r="K14">
-        <v>5.389801868053286E-05</v>
+        <v>5.38980186805323E-05</v>
       </c>
       <c r="L14">
-        <v>0.001994453787480646</v>
+        <v>0.001994453787480644</v>
       </c>
       <c r="M14">
-        <v>3.836332739989863</v>
+        <v>3.836332739989865</v>
       </c>
       <c r="N14">
-        <v>3.836332739989863</v>
+        <v>3.836332739989865</v>
       </c>
       <c r="O14">
-        <v>3.299318898804026</v>
+        <v>3.299318898804027</v>
       </c>
       <c r="P14">
-        <v>2.557573125999469</v>
+        <v>2.55757312599947</v>
       </c>
       <c r="Q14">
-        <v>2.557573125999469</v>
+        <v>2.55757312599947</v>
       </c>
       <c r="R14">
         <v>1.918193319004272</v>
@@ -1347,7 +1359,7 @@
         <v>1.918193319004272</v>
       </c>
       <c r="T14">
-        <v>1.650085903164402</v>
+        <v>1.650085903164403</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.951167112277634</v>
+      </c>
+      <c r="D15">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="E15">
         <v>0.2434722769406729</v>
       </c>
-      <c r="D15">
-        <v>0.01254785470251998</v>
-      </c>
-      <c r="E15">
+      <c r="F15">
+        <v>1.055946429035</v>
+      </c>
+      <c r="G15">
+        <v>0.01254785470251997</v>
+      </c>
+      <c r="H15">
         <v>1.467031158321971</v>
       </c>
-      <c r="F15">
+      <c r="I15">
+        <v>0.01254785470251997</v>
+      </c>
+      <c r="J15">
         <v>0.2434722769406729</v>
-      </c>
-      <c r="G15">
-        <v>-0.0002503768792746597</v>
-      </c>
-      <c r="H15">
-        <v>1.951167112277634</v>
-      </c>
-      <c r="I15">
-        <v>1.055946429035</v>
-      </c>
-      <c r="J15">
-        <v>0.01254785470251998</v>
       </c>
       <c r="K15">
         <v>0.2434722769406729</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.031086436960121</v>
+        <v>0.2406045396100247</v>
       </c>
       <c r="D16">
-        <v>0.9814098695511184</v>
+        <v>4.268200466166679</v>
       </c>
       <c r="E16">
-        <v>1.010369271932264</v>
+        <v>1.955682545332104</v>
       </c>
       <c r="F16">
-        <v>1.031086436960121</v>
+        <v>0.3387220736329988</v>
       </c>
       <c r="G16">
-        <v>0.9681699309966444</v>
+        <v>2.909552588571048</v>
       </c>
       <c r="H16">
-        <v>1.000254700562311</v>
+        <v>1.572722086876986</v>
       </c>
       <c r="I16">
-        <v>1.002454315668721</v>
+        <v>2.909552588571048</v>
       </c>
       <c r="J16">
-        <v>0.9814098695511184</v>
+        <v>1.955682545332104</v>
       </c>
       <c r="K16">
-        <v>1.031086436960121</v>
+        <v>1.955682545332104</v>
       </c>
       <c r="L16">
-        <v>1.010369271932264</v>
+        <v>1.572722086876986</v>
       </c>
       <c r="M16">
-        <v>0.9958895707416913</v>
+        <v>2.241137337724017</v>
       </c>
       <c r="N16">
-        <v>0.9958895707416913</v>
+        <v>2.241137337724017</v>
       </c>
       <c r="O16">
-        <v>0.9973446140152312</v>
+        <v>1.57429307168602</v>
       </c>
       <c r="P16">
-        <v>1.007621859481168</v>
+        <v>2.145985740260046</v>
       </c>
       <c r="Q16">
-        <v>1.007621859481168</v>
+        <v>2.145985740260046</v>
       </c>
       <c r="R16">
-        <v>1.013488003850906</v>
+        <v>2.098409941528061</v>
       </c>
       <c r="S16">
-        <v>1.013488003850906</v>
+        <v>2.098409941528061</v>
       </c>
       <c r="T16">
-        <v>0.9989574209451968</v>
+        <v>1.88091405003164</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.976161171344973</v>
+        <v>0.4469154730294679</v>
       </c>
       <c r="D17">
-        <v>1.053402545331115</v>
+        <v>3.141440184864841</v>
       </c>
       <c r="E17">
-        <v>0.9765831776914727</v>
+        <v>2.128012073770051</v>
       </c>
       <c r="F17">
-        <v>0.976161171344973</v>
+        <v>0.5428892139309058</v>
       </c>
       <c r="G17">
-        <v>1.045403599044828</v>
+        <v>2.233412236774328</v>
       </c>
       <c r="H17">
-        <v>0.9997807826760502</v>
+        <v>1.344577607996484</v>
       </c>
       <c r="I17">
-        <v>1.000915227205551</v>
+        <v>2.233412236774328</v>
       </c>
       <c r="J17">
-        <v>1.053402545331115</v>
+        <v>2.128012073770051</v>
       </c>
       <c r="K17">
-        <v>0.976161171344973</v>
+        <v>2.128012073770051</v>
       </c>
       <c r="L17">
-        <v>0.9765831776914727</v>
+        <v>1.344577607996484</v>
       </c>
       <c r="M17">
-        <v>1.014992861511294</v>
+        <v>1.788994922385406</v>
       </c>
       <c r="N17">
-        <v>1.014992861511294</v>
+        <v>1.788994922385406</v>
       </c>
       <c r="O17">
-        <v>1.009922168566213</v>
+        <v>1.341635105933427</v>
       </c>
       <c r="P17">
-        <v>1.002048964789187</v>
+        <v>1.902000639513621</v>
       </c>
       <c r="Q17">
-        <v>1.002048964789187</v>
+        <v>1.902000639513621</v>
       </c>
       <c r="R17">
-        <v>0.9955770164281335</v>
+        <v>1.958503498077728</v>
       </c>
       <c r="S17">
-        <v>0.9955770164281335</v>
+        <v>1.958503498077728</v>
       </c>
       <c r="T17">
-        <v>1.008707750548999</v>
+        <v>1.63954113172768</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.030282999110335</v>
+        <v>0.856030319689789</v>
       </c>
       <c r="D18">
-        <v>1.236332324159667</v>
+        <v>0.8770477932532461</v>
       </c>
       <c r="E18">
-        <v>1.078418074592538</v>
+        <v>2.43083869514366</v>
       </c>
       <c r="F18">
-        <v>1.030282999110335</v>
+        <v>0.9362984759817191</v>
       </c>
       <c r="G18">
-        <v>1.000878197936837</v>
+        <v>0.9350638570461965</v>
       </c>
       <c r="H18">
-        <v>0.9844807803582197</v>
+        <v>0.8766010036734747</v>
       </c>
       <c r="I18">
-        <v>0.9786604129320422</v>
+        <v>0.9350638570461965</v>
       </c>
       <c r="J18">
-        <v>1.236332324159667</v>
+        <v>2.43083869514366</v>
       </c>
       <c r="K18">
-        <v>1.030282999110335</v>
+        <v>2.43083869514366</v>
       </c>
       <c r="L18">
-        <v>1.078418074592538</v>
+        <v>0.8766010036734747</v>
       </c>
       <c r="M18">
-        <v>1.157375199376102</v>
+        <v>0.9058324303598356</v>
       </c>
       <c r="N18">
-        <v>1.157375199376102</v>
+        <v>0.9058324303598356</v>
       </c>
       <c r="O18">
-        <v>1.099743726370142</v>
+        <v>0.8892317268031534</v>
       </c>
       <c r="P18">
-        <v>1.115011132620847</v>
+        <v>1.414167851954444</v>
       </c>
       <c r="Q18">
-        <v>1.115011132620847</v>
+        <v>1.414167851954444</v>
       </c>
       <c r="R18">
-        <v>1.093829099243218</v>
+        <v>1.668335562751748</v>
       </c>
       <c r="S18">
-        <v>1.093829099243218</v>
+        <v>1.668335562751748</v>
       </c>
       <c r="T18">
-        <v>1.051508798181606</v>
+        <v>1.151980024131348</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8206129564135272</v>
+      </c>
+      <c r="D19">
+        <v>0.8389390206303784</v>
+      </c>
+      <c r="E19">
+        <v>3.108540898079916</v>
+      </c>
+      <c r="F19">
+        <v>0.9235905182715427</v>
+      </c>
+      <c r="G19">
+        <v>0.9694496357517584</v>
+      </c>
+      <c r="H19">
+        <v>0.8584891627943878</v>
+      </c>
+      <c r="I19">
+        <v>0.9694496357517584</v>
+      </c>
+      <c r="J19">
+        <v>3.108540898079916</v>
+      </c>
+      <c r="K19">
+        <v>3.108540898079916</v>
+      </c>
+      <c r="L19">
+        <v>0.8584891627943878</v>
+      </c>
+      <c r="M19">
+        <v>0.9139693992730731</v>
+      </c>
+      <c r="N19">
+        <v>0.9139693992730731</v>
+      </c>
+      <c r="O19">
+        <v>0.8828505849865578</v>
+      </c>
+      <c r="P19">
+        <v>1.645493232208687</v>
+      </c>
+      <c r="Q19">
+        <v>1.645493232208687</v>
+      </c>
+      <c r="R19">
+        <v>2.011255148676494</v>
+      </c>
+      <c r="S19">
+        <v>2.011255148676494</v>
+      </c>
+      <c r="T19">
+        <v>1.253270365323585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000254700562312</v>
+      </c>
+      <c r="D20">
+        <v>0.9681699309966453</v>
+      </c>
+      <c r="E20">
+        <v>1.031086436960122</v>
+      </c>
+      <c r="F20">
+        <v>1.002454315668719</v>
+      </c>
+      <c r="G20">
+        <v>0.981409869551117</v>
+      </c>
+      <c r="H20">
+        <v>1.010369271932264</v>
+      </c>
+      <c r="I20">
+        <v>0.981409869551117</v>
+      </c>
+      <c r="J20">
+        <v>1.031086436960122</v>
+      </c>
+      <c r="K20">
+        <v>1.031086436960122</v>
+      </c>
+      <c r="L20">
+        <v>1.010369271932264</v>
+      </c>
+      <c r="M20">
+        <v>0.9958895707416904</v>
+      </c>
+      <c r="N20">
+        <v>0.9958895707416904</v>
+      </c>
+      <c r="O20">
+        <v>0.9973446140152308</v>
+      </c>
+      <c r="P20">
+        <v>1.007621859481167</v>
+      </c>
+      <c r="Q20">
+        <v>1.007621859481167</v>
+      </c>
+      <c r="R20">
+        <v>1.013488003850906</v>
+      </c>
+      <c r="S20">
+        <v>1.013488003850906</v>
+      </c>
+      <c r="T20">
+        <v>0.9989574209451965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9997807826760507</v>
+      </c>
+      <c r="D21">
+        <v>1.04540359904483</v>
+      </c>
+      <c r="E21">
+        <v>0.9761611713449719</v>
+      </c>
+      <c r="F21">
+        <v>1.000915227205551</v>
+      </c>
+      <c r="G21">
+        <v>1.053402545331116</v>
+      </c>
+      <c r="H21">
+        <v>0.9765831776914726</v>
+      </c>
+      <c r="I21">
+        <v>1.053402545331116</v>
+      </c>
+      <c r="J21">
+        <v>0.9761611713449719</v>
+      </c>
+      <c r="K21">
+        <v>0.9761611713449719</v>
+      </c>
+      <c r="L21">
+        <v>0.9765831776914726</v>
+      </c>
+      <c r="M21">
+        <v>1.014992861511294</v>
+      </c>
+      <c r="N21">
+        <v>1.014992861511294</v>
+      </c>
+      <c r="O21">
+        <v>1.009922168566213</v>
+      </c>
+      <c r="P21">
+        <v>1.002048964789187</v>
+      </c>
+      <c r="Q21">
+        <v>1.002048964789187</v>
+      </c>
+      <c r="R21">
+        <v>0.9955770164281329</v>
+      </c>
+      <c r="S21">
+        <v>0.9955770164281329</v>
+      </c>
+      <c r="T21">
+        <v>1.008707750548999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9844807803582184</v>
+      </c>
+      <c r="D22">
+        <v>1.000878197936839</v>
+      </c>
+      <c r="E22">
+        <v>1.030282999110336</v>
+      </c>
+      <c r="F22">
+        <v>0.9786604129320426</v>
+      </c>
+      <c r="G22">
+        <v>1.236332324159669</v>
+      </c>
+      <c r="H22">
+        <v>1.078418074592537</v>
+      </c>
+      <c r="I22">
+        <v>1.236332324159669</v>
+      </c>
+      <c r="J22">
+        <v>1.030282999110336</v>
+      </c>
+      <c r="K22">
+        <v>1.030282999110336</v>
+      </c>
+      <c r="L22">
+        <v>1.078418074592537</v>
+      </c>
+      <c r="M22">
+        <v>1.157375199376103</v>
+      </c>
+      <c r="N22">
+        <v>1.157375199376103</v>
+      </c>
+      <c r="O22">
+        <v>1.099743726370142</v>
+      </c>
+      <c r="P22">
+        <v>1.115011132620847</v>
+      </c>
+      <c r="Q22">
+        <v>1.115011132620847</v>
+      </c>
+      <c r="R22">
+        <v>1.093829099243219</v>
+      </c>
+      <c r="S22">
+        <v>1.093829099243219</v>
+      </c>
+      <c r="T22">
+        <v>1.051508798181607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.088807031191902</v>
+      </c>
+      <c r="D23">
+        <v>0.680165514670602</v>
+      </c>
+      <c r="E23">
         <v>1.096734407992369</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.9369052185306911</v>
+      </c>
+      <c r="G23">
         <v>0.7134201058205806</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>1.098285379294338</v>
       </c>
-      <c r="F19">
+      <c r="I23">
+        <v>0.7134201058205806</v>
+      </c>
+      <c r="J23">
         <v>1.096734407992369</v>
       </c>
-      <c r="G19">
-        <v>0.680165514670602</v>
-      </c>
-      <c r="H19">
-        <v>1.088807031191902</v>
-      </c>
-      <c r="I19">
-        <v>0.9369052185306911</v>
-      </c>
-      <c r="J19">
-        <v>0.7134201058205806</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.096734407992369</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.098285379294338</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9058527425574592</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9058527425574592</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.966837505435607</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9694799643690959</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9694799643690958</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.001293575274914</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.001293575274914</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9357196095834137</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9609230383288436</v>
+        <v>0.80971459837995</v>
       </c>
       <c r="D3">
-        <v>1.196165929180897</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="E3">
-        <v>1.075517402241925</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="F3">
-        <v>0.9562745039752695</v>
+        <v>0.8996249391329799</v>
       </c>
       <c r="G3">
-        <v>1.130506158330388</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="H3">
-        <v>1.029296193134856</v>
+        <v>0.8995547410717861</v>
       </c>
       <c r="I3">
-        <v>1.130506158330388</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="J3">
-        <v>1.075517402241925</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="K3">
-        <v>1.075517402241925</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="L3">
-        <v>1.029296193134856</v>
+        <v>0.8995547410717861</v>
       </c>
       <c r="M3">
-        <v>1.079901175732622</v>
+        <v>0.9118544585751032</v>
       </c>
       <c r="N3">
-        <v>1.079901175732622</v>
+        <v>0.9118544585751032</v>
       </c>
       <c r="O3">
-        <v>1.040241796598029</v>
+        <v>0.8778078385100522</v>
       </c>
       <c r="P3">
-        <v>1.07843991790239</v>
+        <v>1.65061377481208</v>
       </c>
       <c r="Q3">
-        <v>1.07843991790239</v>
+        <v>1.65061377481208</v>
       </c>
       <c r="R3">
-        <v>1.077709288987274</v>
+        <v>2.019993432930569</v>
       </c>
       <c r="S3">
-        <v>1.077709288987274</v>
+        <v>2.019993432930569</v>
       </c>
       <c r="T3">
-        <v>1.058113870865363</v>
+        <v>1.281346837388691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9040874250574215</v>
+        <v>0.8370607835921691</v>
       </c>
       <c r="D4">
-        <v>1.427852674521916</v>
+        <v>0.9539821424111675</v>
       </c>
       <c r="E4">
-        <v>1.103969556861851</v>
+        <v>2.767210724928606</v>
       </c>
       <c r="F4">
-        <v>0.9586205680769918</v>
+        <v>0.9280595525305912</v>
       </c>
       <c r="G4">
-        <v>1.204465782221185</v>
+        <v>0.8667790272014761</v>
       </c>
       <c r="H4">
-        <v>1.060006336512867</v>
+        <v>0.8945268122128065</v>
       </c>
       <c r="I4">
-        <v>1.204465782221185</v>
+        <v>0.8667790272014761</v>
       </c>
       <c r="J4">
-        <v>1.103969556861851</v>
+        <v>2.767210724928606</v>
       </c>
       <c r="K4">
-        <v>1.103969556861851</v>
+        <v>2.767210724928606</v>
       </c>
       <c r="L4">
-        <v>1.060006336512867</v>
+        <v>0.8945268122128065</v>
       </c>
       <c r="M4">
-        <v>1.132236059367026</v>
+        <v>0.8806529197071413</v>
       </c>
       <c r="N4">
-        <v>1.132236059367026</v>
+        <v>0.8806529197071413</v>
       </c>
       <c r="O4">
-        <v>1.056186514597158</v>
+        <v>0.8661222076688172</v>
       </c>
       <c r="P4">
-        <v>1.122813891865301</v>
+        <v>1.50950552144763</v>
       </c>
       <c r="Q4">
-        <v>1.122813891865301</v>
+        <v>1.50950552144763</v>
       </c>
       <c r="R4">
-        <v>1.118102808114439</v>
+        <v>1.823931822317874</v>
       </c>
       <c r="S4">
-        <v>1.118102808114439</v>
+        <v>1.823931822317874</v>
       </c>
       <c r="T4">
-        <v>1.109833723875372</v>
+        <v>1.207936507146136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7629082447263449</v>
+        <v>0.7440780976175899</v>
       </c>
       <c r="D5">
-        <v>1.918670222849598</v>
+        <v>1.107838643202361</v>
       </c>
       <c r="E5">
-        <v>1.275125397922194</v>
+        <v>3.943870865865985</v>
       </c>
       <c r="F5">
-        <v>0.8035501848167851</v>
+        <v>0.8541985992192244</v>
       </c>
       <c r="G5">
-        <v>1.456267793445341</v>
+        <v>1.063997652961962</v>
       </c>
       <c r="H5">
-        <v>1.372887266745037</v>
+        <v>0.9025406603728854</v>
       </c>
       <c r="I5">
-        <v>1.456267793445341</v>
+        <v>1.063997652961962</v>
       </c>
       <c r="J5">
-        <v>1.275125397922194</v>
+        <v>3.943870865865985</v>
       </c>
       <c r="K5">
-        <v>1.275125397922194</v>
+        <v>3.943870865865985</v>
       </c>
       <c r="L5">
-        <v>1.372887266745037</v>
+        <v>0.9025406603728854</v>
       </c>
       <c r="M5">
-        <v>1.414577530095189</v>
+        <v>0.9832691566674239</v>
       </c>
       <c r="N5">
-        <v>1.414577530095189</v>
+        <v>0.9832691566674239</v>
       </c>
       <c r="O5">
-        <v>1.197354434972241</v>
+        <v>0.9035388036508126</v>
       </c>
       <c r="P5">
-        <v>1.368093486037524</v>
+        <v>1.970136393066944</v>
       </c>
       <c r="Q5">
-        <v>1.368093486037524</v>
+        <v>1.970136393066944</v>
       </c>
       <c r="R5">
-        <v>1.344851464008692</v>
+        <v>2.463570011266704</v>
       </c>
       <c r="S5">
-        <v>1.344851464008692</v>
+        <v>2.463570011266704</v>
       </c>
       <c r="T5">
-        <v>1.26490151841755</v>
+        <v>1.436087419873335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.3868278825774976</v>
+        <v>0.8855371358608968</v>
       </c>
       <c r="D6">
-        <v>2.218885252296807</v>
+        <v>1.05941609867716</v>
       </c>
       <c r="E6">
-        <v>2.238600064254573</v>
+        <v>5.330883157330288</v>
       </c>
       <c r="F6">
-        <v>0.6750029706574739</v>
+        <v>0.7365322731081815</v>
       </c>
       <c r="G6">
-        <v>3.277579610696109</v>
+        <v>1.796570353629829</v>
       </c>
       <c r="H6">
-        <v>0.7246722476480973</v>
+        <v>1.020633390424489</v>
       </c>
       <c r="I6">
-        <v>3.277579610696109</v>
+        <v>1.796570353629829</v>
       </c>
       <c r="J6">
-        <v>2.238600064254573</v>
+        <v>5.330883157330288</v>
       </c>
       <c r="K6">
-        <v>2.238600064254573</v>
+        <v>5.330883157330288</v>
       </c>
       <c r="L6">
-        <v>0.7246722476480973</v>
+        <v>1.020633390424489</v>
       </c>
       <c r="M6">
-        <v>2.001125929172103</v>
+        <v>1.408601872027159</v>
       </c>
       <c r="N6">
-        <v>2.001125929172103</v>
+        <v>1.408601872027159</v>
       </c>
       <c r="O6">
-        <v>1.463026580307235</v>
+        <v>1.234246959971738</v>
       </c>
       <c r="P6">
-        <v>2.080283974199593</v>
+        <v>2.716028967128202</v>
       </c>
       <c r="Q6">
-        <v>2.080283974199593</v>
+        <v>2.716028967128202</v>
       </c>
       <c r="R6">
-        <v>2.119862996713338</v>
+        <v>3.369742514678723</v>
       </c>
       <c r="S6">
-        <v>2.119862996713338</v>
+        <v>3.369742514678723</v>
       </c>
       <c r="T6">
-        <v>1.586928004688426</v>
+        <v>1.804928734838474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9993406573365448</v>
+        <v>0.0356430238781617</v>
       </c>
       <c r="D7">
-        <v>0.9972897873623754</v>
+        <v>5.677190609823421</v>
       </c>
       <c r="E7">
-        <v>1.02561603555661</v>
+        <v>0.6414569956602283</v>
       </c>
       <c r="F7">
-        <v>0.9988439323883261</v>
+        <v>0.1402280287522113</v>
       </c>
       <c r="G7">
-        <v>1.007650245354308</v>
+        <v>3.939530589767609</v>
       </c>
       <c r="H7">
-        <v>0.9986877379829672</v>
+        <v>1.896244429949556</v>
       </c>
       <c r="I7">
-        <v>1.007650245354308</v>
+        <v>3.939530589767609</v>
       </c>
       <c r="J7">
-        <v>1.02561603555661</v>
+        <v>0.6414569956602283</v>
       </c>
       <c r="K7">
-        <v>1.02561603555661</v>
+        <v>0.6414569956602283</v>
       </c>
       <c r="L7">
-        <v>0.9986877379829672</v>
+        <v>1.896244429949556</v>
       </c>
       <c r="M7">
-        <v>1.003168991668637</v>
+        <v>2.917887509858582</v>
       </c>
       <c r="N7">
-        <v>1.003168991668637</v>
+        <v>2.917887509858582</v>
       </c>
       <c r="O7">
-        <v>1.001892880224607</v>
+        <v>1.957139347865109</v>
       </c>
       <c r="P7">
-        <v>1.010651339631295</v>
+        <v>2.159077338459131</v>
       </c>
       <c r="Q7">
-        <v>1.010651339631295</v>
+        <v>2.159077338459131</v>
       </c>
       <c r="R7">
-        <v>1.014392513612624</v>
+        <v>1.779672252759406</v>
       </c>
       <c r="S7">
-        <v>1.014392513612624</v>
+        <v>1.779672252759406</v>
       </c>
       <c r="T7">
-        <v>1.004571399330189</v>
+        <v>2.055048946305198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.998453839946137</v>
+        <v>0.03550627442927944</v>
       </c>
       <c r="D8">
-        <v>0.9942855706811037</v>
+        <v>5.643504293258746</v>
       </c>
       <c r="E8">
-        <v>1.052501816553491</v>
+        <v>0.7289060913436229</v>
       </c>
       <c r="F8">
-        <v>1.000271296349319</v>
+        <v>0.1392764722795065</v>
       </c>
       <c r="G8">
-        <v>1.03287941147511</v>
+        <v>4.032149763057164</v>
       </c>
       <c r="H8">
-        <v>0.9926410730429109</v>
+        <v>1.886564183279253</v>
       </c>
       <c r="I8">
-        <v>1.03287941147511</v>
+        <v>4.032149763057164</v>
       </c>
       <c r="J8">
-        <v>1.052501816553491</v>
+        <v>0.7289060913436229</v>
       </c>
       <c r="K8">
-        <v>1.052501816553491</v>
+        <v>0.7289060913436229</v>
       </c>
       <c r="L8">
-        <v>0.9926410730429109</v>
+        <v>1.886564183279253</v>
       </c>
       <c r="M8">
-        <v>1.012760242259011</v>
+        <v>2.959356973168208</v>
       </c>
       <c r="N8">
-        <v>1.012760242259011</v>
+        <v>2.959356973168208</v>
       </c>
       <c r="O8">
-        <v>1.007991441488053</v>
+        <v>1.984740073588565</v>
       </c>
       <c r="P8">
-        <v>1.026007433690504</v>
+        <v>2.215873345893346</v>
       </c>
       <c r="Q8">
-        <v>1.026007433690504</v>
+        <v>2.215873345893346</v>
       </c>
       <c r="R8">
-        <v>1.032631029406251</v>
+        <v>1.844131532255915</v>
       </c>
       <c r="S8">
-        <v>1.032631029406251</v>
+        <v>1.844131532255915</v>
       </c>
       <c r="T8">
-        <v>1.011838834674679</v>
+        <v>2.077651179607928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002107941126507</v>
+        <v>0.03545403835024526</v>
       </c>
       <c r="D9">
-        <v>0.9560578556864886</v>
+        <v>5.617451831420078</v>
       </c>
       <c r="E9">
-        <v>1.07257752020572</v>
+        <v>0.8485226334780168</v>
       </c>
       <c r="F9">
-        <v>0.9968486217955252</v>
+        <v>0.1383455631677969</v>
       </c>
       <c r="G9">
-        <v>1.100568736114495</v>
+        <v>4.037194838160452</v>
       </c>
       <c r="H9">
-        <v>0.9814066430998976</v>
+        <v>1.881078411024271</v>
       </c>
       <c r="I9">
-        <v>1.100568736114495</v>
+        <v>4.037194838160452</v>
       </c>
       <c r="J9">
-        <v>1.07257752020572</v>
+        <v>0.8485226334780168</v>
       </c>
       <c r="K9">
-        <v>1.07257752020572</v>
+        <v>0.8485226334780168</v>
       </c>
       <c r="L9">
-        <v>0.9814066430998976</v>
+        <v>1.881078411024271</v>
       </c>
       <c r="M9">
-        <v>1.040987689607196</v>
+        <v>2.959136624592361</v>
       </c>
       <c r="N9">
-        <v>1.040987689607196</v>
+        <v>2.959136624592361</v>
       </c>
       <c r="O9">
-        <v>1.028027773446966</v>
+        <v>1.984575762511656</v>
       </c>
       <c r="P9">
-        <v>1.051517633140038</v>
+        <v>2.255598627554246</v>
       </c>
       <c r="Q9">
-        <v>1.051517633140038</v>
+        <v>2.255598627554246</v>
       </c>
       <c r="R9">
-        <v>1.056782604906458</v>
+        <v>1.903829629035189</v>
       </c>
       <c r="S9">
-        <v>1.056782604906458</v>
+        <v>1.903829629035189</v>
       </c>
       <c r="T9">
-        <v>1.018261219671439</v>
+        <v>2.093007885933476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9919229015534577</v>
+        <v>0.03520108190115678</v>
       </c>
       <c r="D10">
-        <v>0.9745599959497731</v>
+        <v>5.531714124939622</v>
       </c>
       <c r="E10">
-        <v>1.166535673079423</v>
+        <v>1.070815626392135</v>
       </c>
       <c r="F10">
-        <v>0.9855617477438049</v>
+        <v>0.1352235896052359</v>
       </c>
       <c r="G10">
-        <v>1.147242143635425</v>
+        <v>4.538211873972336</v>
       </c>
       <c r="H10">
-        <v>0.9773479108030551</v>
+        <v>1.856023477216898</v>
       </c>
       <c r="I10">
-        <v>1.147242143635425</v>
+        <v>4.538211873972336</v>
       </c>
       <c r="J10">
-        <v>1.166535673079423</v>
+        <v>1.070815626392135</v>
       </c>
       <c r="K10">
-        <v>1.166535673079423</v>
+        <v>1.070815626392135</v>
       </c>
       <c r="L10">
-        <v>0.9773479108030551</v>
+        <v>1.856023477216898</v>
       </c>
       <c r="M10">
-        <v>1.06229502721924</v>
+        <v>3.197117675594617</v>
       </c>
       <c r="N10">
-        <v>1.06229502721924</v>
+        <v>3.197117675594617</v>
       </c>
       <c r="O10">
-        <v>1.038837651997313</v>
+        <v>2.143145477696797</v>
       </c>
       <c r="P10">
-        <v>1.097041909172635</v>
+        <v>2.488350325860456</v>
       </c>
       <c r="Q10">
-        <v>1.097041909172635</v>
+        <v>2.488350325860456</v>
       </c>
       <c r="R10">
-        <v>1.114415350149332</v>
+        <v>2.133966650993376</v>
       </c>
       <c r="S10">
-        <v>1.114415350149332</v>
+        <v>2.133966650993376</v>
       </c>
       <c r="T10">
-        <v>1.040528395460823</v>
+        <v>2.194531629004564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9764647188484443</v>
+        <v>0.9536199835091309</v>
       </c>
       <c r="D11">
-        <v>0.9107505266245541</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="E11">
-        <v>1.40062905144651</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="F11">
-        <v>0.9399200495136247</v>
+        <v>0.9609301307710889</v>
       </c>
       <c r="G11">
-        <v>1.444134677132659</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="H11">
-        <v>1.001974548398665</v>
+        <v>1.031564002918908</v>
       </c>
       <c r="I11">
-        <v>1.444134677132659</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="J11">
-        <v>1.40062905144651</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="K11">
-        <v>1.40062905144651</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="L11">
-        <v>1.001974548398665</v>
+        <v>1.031564002918908</v>
       </c>
       <c r="M11">
-        <v>1.223054612765662</v>
+        <v>1.069455707393746</v>
       </c>
       <c r="N11">
-        <v>1.223054612765662</v>
+        <v>1.069455707393746</v>
       </c>
       <c r="O11">
-        <v>1.140857981459923</v>
+        <v>1.030843799432207</v>
       </c>
       <c r="P11">
-        <v>1.282246092325945</v>
+        <v>1.062240316340737</v>
       </c>
       <c r="Q11">
-        <v>1.282246092325945</v>
+        <v>1.062240316340737</v>
       </c>
       <c r="R11">
-        <v>1.311841832106086</v>
+        <v>1.058632620814232</v>
       </c>
       <c r="S11">
-        <v>1.311841832106086</v>
+        <v>1.058632620814232</v>
       </c>
       <c r="T11">
-        <v>1.112312261994076</v>
+        <v>1.055982040020493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7438671392546355</v>
+        <v>0.9743728639796024</v>
       </c>
       <c r="D12">
-        <v>0.04493336651283013</v>
+        <v>1.115690548983565</v>
       </c>
       <c r="E12">
-        <v>0.04323703425380294</v>
+        <v>1.027092499970371</v>
       </c>
       <c r="F12">
-        <v>1.437118756671864</v>
+        <v>0.9766223855021621</v>
       </c>
       <c r="G12">
-        <v>0.002303868019616903</v>
+        <v>1.06641803656143</v>
       </c>
       <c r="H12">
-        <v>1.478040375546571</v>
+        <v>1.023838034523922</v>
       </c>
       <c r="I12">
-        <v>0.002303868019616903</v>
+        <v>1.06641803656143</v>
       </c>
       <c r="J12">
-        <v>0.04323703425380294</v>
+        <v>1.027092499970371</v>
       </c>
       <c r="K12">
-        <v>0.04323703425380294</v>
+        <v>1.027092499970371</v>
       </c>
       <c r="L12">
-        <v>1.478040375546571</v>
+        <v>1.023838034523922</v>
       </c>
       <c r="M12">
-        <v>0.7401721217830941</v>
+        <v>1.045128035542676</v>
       </c>
       <c r="N12">
-        <v>0.7401721217830941</v>
+        <v>1.045128035542676</v>
       </c>
       <c r="O12">
-        <v>0.7414037942736079</v>
+        <v>1.021542978354985</v>
       </c>
       <c r="P12">
-        <v>0.507860425939997</v>
+        <v>1.039116190351907</v>
       </c>
       <c r="Q12">
-        <v>0.5078604259399971</v>
+        <v>1.039116190351907</v>
       </c>
       <c r="R12">
-        <v>0.3917045780184485</v>
+        <v>1.036110267756523</v>
       </c>
       <c r="S12">
-        <v>0.3917045780184485</v>
+        <v>1.036110267756523</v>
       </c>
       <c r="T12">
-        <v>0.6249167567098869</v>
+        <v>1.030672394920175</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.253314960072905</v>
+        <v>0.9168371556206679</v>
       </c>
       <c r="D13">
-        <v>2.989604547419959</v>
+        <v>1.308706863125923</v>
       </c>
       <c r="E13">
-        <v>2.195642819680748</v>
+        <v>1.164931370660897</v>
       </c>
       <c r="F13">
-        <v>0.4768826445781498</v>
+        <v>0.9343052622495266</v>
       </c>
       <c r="G13">
-        <v>2.359723982081764</v>
+        <v>1.255486788100182</v>
       </c>
       <c r="H13">
-        <v>0.06129398204738225</v>
+        <v>1.100041732330282</v>
       </c>
       <c r="I13">
-        <v>2.359723982081764</v>
+        <v>1.255486788100182</v>
       </c>
       <c r="J13">
-        <v>2.195642819680748</v>
+        <v>1.164931370660897</v>
       </c>
       <c r="K13">
-        <v>2.195642819680748</v>
+        <v>1.164931370660897</v>
       </c>
       <c r="L13">
-        <v>0.06129398204738225</v>
+        <v>1.100041732330282</v>
       </c>
       <c r="M13">
-        <v>1.210508982064573</v>
+        <v>1.177764260215232</v>
       </c>
       <c r="N13">
-        <v>1.210508982064573</v>
+        <v>1.177764260215232</v>
       </c>
       <c r="O13">
-        <v>1.224777641400684</v>
+        <v>1.09078855868371</v>
       </c>
       <c r="P13">
-        <v>1.538886927936632</v>
+        <v>1.173486630363787</v>
       </c>
       <c r="Q13">
-        <v>1.538886927936632</v>
+        <v>1.173486630363787</v>
       </c>
       <c r="R13">
-        <v>1.703075900872661</v>
+        <v>1.171347815438065</v>
       </c>
       <c r="S13">
-        <v>1.703075900872661</v>
+        <v>1.171347815438065</v>
       </c>
       <c r="T13">
-        <v>1.556077155980151</v>
+        <v>1.11338486201458</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.225291216432352</v>
+        <v>1.087030029049689</v>
       </c>
       <c r="D14">
-        <v>-0.0001223677793042235</v>
+        <v>1.401626499891844</v>
       </c>
       <c r="E14">
-        <v>5.38980186805323E-05</v>
+        <v>1.746754606725835</v>
       </c>
       <c r="F14">
-        <v>0.002627192334961447</v>
+        <v>0.7100364256149773</v>
       </c>
       <c r="G14">
-        <v>7.670671026192249</v>
+        <v>2.019068747822625</v>
       </c>
       <c r="H14">
-        <v>0.001994453787480644</v>
+        <v>1.294448661163919</v>
       </c>
       <c r="I14">
-        <v>7.670671026192249</v>
+        <v>2.019068747822625</v>
       </c>
       <c r="J14">
-        <v>5.38980186805323E-05</v>
+        <v>1.746754606725835</v>
       </c>
       <c r="K14">
-        <v>5.38980186805323E-05</v>
+        <v>1.746754606725835</v>
       </c>
       <c r="L14">
-        <v>0.001994453787480644</v>
+        <v>1.294448661163919</v>
       </c>
       <c r="M14">
-        <v>3.836332739989865</v>
+        <v>1.656758704493272</v>
       </c>
       <c r="N14">
-        <v>3.836332739989865</v>
+        <v>1.656758704493272</v>
       </c>
       <c r="O14">
-        <v>3.299318898804027</v>
+        <v>1.466849146012078</v>
       </c>
       <c r="P14">
-        <v>2.55757312599947</v>
+        <v>1.686757338570793</v>
       </c>
       <c r="Q14">
-        <v>2.55757312599947</v>
+        <v>1.686757338570793</v>
       </c>
       <c r="R14">
-        <v>1.918193319004272</v>
+        <v>1.701756655609554</v>
       </c>
       <c r="S14">
-        <v>1.918193319004272</v>
+        <v>1.701756655609554</v>
       </c>
       <c r="T14">
-        <v>1.650085903164403</v>
+        <v>1.376494161711482</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.951167112277634</v>
+        <v>0.9609230383288436</v>
       </c>
       <c r="D15">
-        <v>-0.0002503768792746595</v>
+        <v>1.196165929180897</v>
       </c>
       <c r="E15">
-        <v>0.2434722769406729</v>
+        <v>1.075517402241925</v>
       </c>
       <c r="F15">
-        <v>1.055946429035</v>
+        <v>0.9562745039752695</v>
       </c>
       <c r="G15">
-        <v>0.01254785470251997</v>
+        <v>1.130506158330388</v>
       </c>
       <c r="H15">
-        <v>1.467031158321971</v>
+        <v>1.029296193134856</v>
       </c>
       <c r="I15">
-        <v>0.01254785470251997</v>
+        <v>1.130506158330388</v>
       </c>
       <c r="J15">
-        <v>0.2434722769406729</v>
+        <v>1.075517402241925</v>
       </c>
       <c r="K15">
-        <v>0.2434722769406729</v>
+        <v>1.075517402241925</v>
       </c>
       <c r="L15">
-        <v>1.467031158321971</v>
+        <v>1.029296193134856</v>
       </c>
       <c r="M15">
-        <v>0.7397895065122454</v>
+        <v>1.079901175732622</v>
       </c>
       <c r="N15">
-        <v>0.7397895065122454</v>
+        <v>1.079901175732622</v>
       </c>
       <c r="O15">
-        <v>1.143582041767375</v>
+        <v>1.040241796598029</v>
       </c>
       <c r="P15">
-        <v>0.5743504299883879</v>
+        <v>1.07843991790239</v>
       </c>
       <c r="Q15">
-        <v>0.5743504299883879</v>
+        <v>1.07843991790239</v>
       </c>
       <c r="R15">
-        <v>0.4916308917264592</v>
+        <v>1.077709288987274</v>
       </c>
       <c r="S15">
-        <v>0.4916308917264592</v>
+        <v>1.077709288987274</v>
       </c>
       <c r="T15">
-        <v>0.7883190757330872</v>
+        <v>1.058113870865363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2406045396100247</v>
+        <v>0.9040874250574215</v>
       </c>
       <c r="D16">
-        <v>4.268200466166679</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="E16">
-        <v>1.955682545332104</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="F16">
-        <v>0.3387220736329988</v>
+        <v>0.9586205680769918</v>
       </c>
       <c r="G16">
-        <v>2.909552588571048</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="H16">
-        <v>1.572722086876986</v>
+        <v>1.060006336512867</v>
       </c>
       <c r="I16">
-        <v>2.909552588571048</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="J16">
-        <v>1.955682545332104</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="K16">
-        <v>1.955682545332104</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="L16">
-        <v>1.572722086876986</v>
+        <v>1.060006336512867</v>
       </c>
       <c r="M16">
-        <v>2.241137337724017</v>
+        <v>1.132236059367026</v>
       </c>
       <c r="N16">
-        <v>2.241137337724017</v>
+        <v>1.132236059367026</v>
       </c>
       <c r="O16">
-        <v>1.57429307168602</v>
+        <v>1.056186514597158</v>
       </c>
       <c r="P16">
-        <v>2.145985740260046</v>
+        <v>1.122813891865301</v>
       </c>
       <c r="Q16">
-        <v>2.145985740260046</v>
+        <v>1.122813891865301</v>
       </c>
       <c r="R16">
-        <v>2.098409941528061</v>
+        <v>1.118102808114439</v>
       </c>
       <c r="S16">
-        <v>2.098409941528061</v>
+        <v>1.118102808114439</v>
       </c>
       <c r="T16">
-        <v>1.88091405003164</v>
+        <v>1.109833723875372</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4469154730294679</v>
+        <v>0.7629082447263449</v>
       </c>
       <c r="D17">
-        <v>3.141440184864841</v>
+        <v>1.918670222849598</v>
       </c>
       <c r="E17">
-        <v>2.128012073770051</v>
+        <v>1.275125397922194</v>
       </c>
       <c r="F17">
-        <v>0.5428892139309058</v>
+        <v>0.8035501848167851</v>
       </c>
       <c r="G17">
-        <v>2.233412236774328</v>
+        <v>1.456267793445341</v>
       </c>
       <c r="H17">
-        <v>1.344577607996484</v>
+        <v>1.372887266745037</v>
       </c>
       <c r="I17">
-        <v>2.233412236774328</v>
+        <v>1.456267793445341</v>
       </c>
       <c r="J17">
-        <v>2.128012073770051</v>
+        <v>1.275125397922194</v>
       </c>
       <c r="K17">
-        <v>2.128012073770051</v>
+        <v>1.275125397922194</v>
       </c>
       <c r="L17">
-        <v>1.344577607996484</v>
+        <v>1.372887266745037</v>
       </c>
       <c r="M17">
-        <v>1.788994922385406</v>
+        <v>1.414577530095189</v>
       </c>
       <c r="N17">
-        <v>1.788994922385406</v>
+        <v>1.414577530095189</v>
       </c>
       <c r="O17">
-        <v>1.341635105933427</v>
+        <v>1.197354434972241</v>
       </c>
       <c r="P17">
-        <v>1.902000639513621</v>
+        <v>1.368093486037524</v>
       </c>
       <c r="Q17">
-        <v>1.902000639513621</v>
+        <v>1.368093486037524</v>
       </c>
       <c r="R17">
-        <v>1.958503498077728</v>
+        <v>1.344851464008692</v>
       </c>
       <c r="S17">
-        <v>1.958503498077728</v>
+        <v>1.344851464008692</v>
       </c>
       <c r="T17">
-        <v>1.63954113172768</v>
+        <v>1.26490151841755</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.856030319689789</v>
+        <v>0.3868278825774976</v>
       </c>
       <c r="D18">
-        <v>0.8770477932532461</v>
+        <v>2.218885252296807</v>
       </c>
       <c r="E18">
-        <v>2.43083869514366</v>
+        <v>2.238600064254573</v>
       </c>
       <c r="F18">
-        <v>0.9362984759817191</v>
+        <v>0.6750029706574739</v>
       </c>
       <c r="G18">
-        <v>0.9350638570461965</v>
+        <v>3.277579610696109</v>
       </c>
       <c r="H18">
-        <v>0.8766010036734747</v>
+        <v>0.7246722476480973</v>
       </c>
       <c r="I18">
-        <v>0.9350638570461965</v>
+        <v>3.277579610696109</v>
       </c>
       <c r="J18">
-        <v>2.43083869514366</v>
+        <v>2.238600064254573</v>
       </c>
       <c r="K18">
-        <v>2.43083869514366</v>
+        <v>2.238600064254573</v>
       </c>
       <c r="L18">
-        <v>0.8766010036734747</v>
+        <v>0.7246722476480973</v>
       </c>
       <c r="M18">
-        <v>0.9058324303598356</v>
+        <v>2.001125929172103</v>
       </c>
       <c r="N18">
-        <v>0.9058324303598356</v>
+        <v>2.001125929172103</v>
       </c>
       <c r="O18">
-        <v>0.8892317268031534</v>
+        <v>1.463026580307235</v>
       </c>
       <c r="P18">
-        <v>1.414167851954444</v>
+        <v>2.080283974199593</v>
       </c>
       <c r="Q18">
-        <v>1.414167851954444</v>
+        <v>2.080283974199593</v>
       </c>
       <c r="R18">
-        <v>1.668335562751748</v>
+        <v>2.119862996713338</v>
       </c>
       <c r="S18">
-        <v>1.668335562751748</v>
+        <v>2.119862996713338</v>
       </c>
       <c r="T18">
-        <v>1.151980024131348</v>
+        <v>1.586928004688426</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8206129564135272</v>
+        <v>0.9993406573365448</v>
       </c>
       <c r="D19">
-        <v>0.8389390206303784</v>
+        <v>0.9972897873623754</v>
       </c>
       <c r="E19">
-        <v>3.108540898079916</v>
+        <v>1.02561603555661</v>
       </c>
       <c r="F19">
-        <v>0.9235905182715427</v>
+        <v>0.9988439323883261</v>
       </c>
       <c r="G19">
-        <v>0.9694496357517584</v>
+        <v>1.007650245354308</v>
       </c>
       <c r="H19">
-        <v>0.8584891627943878</v>
+        <v>0.9986877379829672</v>
       </c>
       <c r="I19">
-        <v>0.9694496357517584</v>
+        <v>1.007650245354308</v>
       </c>
       <c r="J19">
-        <v>3.108540898079916</v>
+        <v>1.02561603555661</v>
       </c>
       <c r="K19">
-        <v>3.108540898079916</v>
+        <v>1.02561603555661</v>
       </c>
       <c r="L19">
-        <v>0.8584891627943878</v>
+        <v>0.9986877379829672</v>
       </c>
       <c r="M19">
-        <v>0.9139693992730731</v>
+        <v>1.003168991668637</v>
       </c>
       <c r="N19">
-        <v>0.9139693992730731</v>
+        <v>1.003168991668637</v>
       </c>
       <c r="O19">
-        <v>0.8828505849865578</v>
+        <v>1.001892880224607</v>
       </c>
       <c r="P19">
-        <v>1.645493232208687</v>
+        <v>1.010651339631295</v>
       </c>
       <c r="Q19">
-        <v>1.645493232208687</v>
+        <v>1.010651339631295</v>
       </c>
       <c r="R19">
-        <v>2.011255148676494</v>
+        <v>1.014392513612624</v>
       </c>
       <c r="S19">
-        <v>2.011255148676494</v>
+        <v>1.014392513612624</v>
       </c>
       <c r="T19">
-        <v>1.253270365323585</v>
+        <v>1.004571399330189</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000254700562312</v>
+        <v>0.998453839946137</v>
       </c>
       <c r="D20">
-        <v>0.9681699309966453</v>
+        <v>0.9942855706811037</v>
       </c>
       <c r="E20">
-        <v>1.031086436960122</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="F20">
-        <v>1.002454315668719</v>
+        <v>1.000271296349319</v>
       </c>
       <c r="G20">
-        <v>0.981409869551117</v>
+        <v>1.03287941147511</v>
       </c>
       <c r="H20">
-        <v>1.010369271932264</v>
+        <v>0.9926410730429109</v>
       </c>
       <c r="I20">
-        <v>0.981409869551117</v>
+        <v>1.03287941147511</v>
       </c>
       <c r="J20">
-        <v>1.031086436960122</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="K20">
-        <v>1.031086436960122</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="L20">
-        <v>1.010369271932264</v>
+        <v>0.9926410730429109</v>
       </c>
       <c r="M20">
-        <v>0.9958895707416904</v>
+        <v>1.012760242259011</v>
       </c>
       <c r="N20">
-        <v>0.9958895707416904</v>
+        <v>1.012760242259011</v>
       </c>
       <c r="O20">
-        <v>0.9973446140152308</v>
+        <v>1.007991441488053</v>
       </c>
       <c r="P20">
-        <v>1.007621859481167</v>
+        <v>1.026007433690504</v>
       </c>
       <c r="Q20">
-        <v>1.007621859481167</v>
+        <v>1.026007433690504</v>
       </c>
       <c r="R20">
-        <v>1.013488003850906</v>
+        <v>1.032631029406251</v>
       </c>
       <c r="S20">
-        <v>1.013488003850906</v>
+        <v>1.032631029406251</v>
       </c>
       <c r="T20">
-        <v>0.9989574209451965</v>
+        <v>1.011838834674679</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9997807826760507</v>
+        <v>1.002107941126507</v>
       </c>
       <c r="D21">
-        <v>1.04540359904483</v>
+        <v>0.9560578556864886</v>
       </c>
       <c r="E21">
-        <v>0.9761611713449719</v>
+        <v>1.07257752020572</v>
       </c>
       <c r="F21">
-        <v>1.000915227205551</v>
+        <v>0.9968486217955252</v>
       </c>
       <c r="G21">
-        <v>1.053402545331116</v>
+        <v>1.100568736114495</v>
       </c>
       <c r="H21">
-        <v>0.9765831776914726</v>
+        <v>0.9814066430998976</v>
       </c>
       <c r="I21">
-        <v>1.053402545331116</v>
+        <v>1.100568736114495</v>
       </c>
       <c r="J21">
-        <v>0.9761611713449719</v>
+        <v>1.07257752020572</v>
       </c>
       <c r="K21">
-        <v>0.9761611713449719</v>
+        <v>1.07257752020572</v>
       </c>
       <c r="L21">
-        <v>0.9765831776914726</v>
+        <v>0.9814066430998976</v>
       </c>
       <c r="M21">
-        <v>1.014992861511294</v>
+        <v>1.040987689607196</v>
       </c>
       <c r="N21">
-        <v>1.014992861511294</v>
+        <v>1.040987689607196</v>
       </c>
       <c r="O21">
-        <v>1.009922168566213</v>
+        <v>1.028027773446966</v>
       </c>
       <c r="P21">
-        <v>1.002048964789187</v>
+        <v>1.051517633140038</v>
       </c>
       <c r="Q21">
-        <v>1.002048964789187</v>
+        <v>1.051517633140038</v>
       </c>
       <c r="R21">
-        <v>0.9955770164281329</v>
+        <v>1.056782604906458</v>
       </c>
       <c r="S21">
-        <v>0.9955770164281329</v>
+        <v>1.056782604906458</v>
       </c>
       <c r="T21">
-        <v>1.008707750548999</v>
+        <v>1.018261219671439</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9844807803582184</v>
+        <v>0.9919229015534577</v>
       </c>
       <c r="D22">
-        <v>1.000878197936839</v>
+        <v>0.9745599959497731</v>
       </c>
       <c r="E22">
-        <v>1.030282999110336</v>
+        <v>1.166535673079423</v>
       </c>
       <c r="F22">
-        <v>0.9786604129320426</v>
+        <v>0.9855617477438049</v>
       </c>
       <c r="G22">
-        <v>1.236332324159669</v>
+        <v>1.147242143635425</v>
       </c>
       <c r="H22">
-        <v>1.078418074592537</v>
+        <v>0.9773479108030551</v>
       </c>
       <c r="I22">
-        <v>1.236332324159669</v>
+        <v>1.147242143635425</v>
       </c>
       <c r="J22">
-        <v>1.030282999110336</v>
+        <v>1.166535673079423</v>
       </c>
       <c r="K22">
-        <v>1.030282999110336</v>
+        <v>1.166535673079423</v>
       </c>
       <c r="L22">
-        <v>1.078418074592537</v>
+        <v>0.9773479108030551</v>
       </c>
       <c r="M22">
-        <v>1.157375199376103</v>
+        <v>1.06229502721924</v>
       </c>
       <c r="N22">
-        <v>1.157375199376103</v>
+        <v>1.06229502721924</v>
       </c>
       <c r="O22">
-        <v>1.099743726370142</v>
+        <v>1.038837651997313</v>
       </c>
       <c r="P22">
-        <v>1.115011132620847</v>
+        <v>1.097041909172635</v>
       </c>
       <c r="Q22">
-        <v>1.115011132620847</v>
+        <v>1.097041909172635</v>
       </c>
       <c r="R22">
-        <v>1.093829099243219</v>
+        <v>1.114415350149332</v>
       </c>
       <c r="S22">
-        <v>1.093829099243219</v>
+        <v>1.114415350149332</v>
       </c>
       <c r="T22">
-        <v>1.051508798181607</v>
+        <v>1.040528395460823</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9764647188484443</v>
+      </c>
+      <c r="D23">
+        <v>0.9107505266245541</v>
+      </c>
+      <c r="E23">
+        <v>1.40062905144651</v>
+      </c>
+      <c r="F23">
+        <v>0.9399200495136247</v>
+      </c>
+      <c r="G23">
+        <v>1.444134677132659</v>
+      </c>
+      <c r="H23">
+        <v>1.001974548398665</v>
+      </c>
+      <c r="I23">
+        <v>1.444134677132659</v>
+      </c>
+      <c r="J23">
+        <v>1.40062905144651</v>
+      </c>
+      <c r="K23">
+        <v>1.40062905144651</v>
+      </c>
+      <c r="L23">
+        <v>1.001974548398665</v>
+      </c>
+      <c r="M23">
+        <v>1.223054612765662</v>
+      </c>
+      <c r="N23">
+        <v>1.223054612765662</v>
+      </c>
+      <c r="O23">
+        <v>1.140857981459923</v>
+      </c>
+      <c r="P23">
+        <v>1.282246092325945</v>
+      </c>
+      <c r="Q23">
+        <v>1.282246092325945</v>
+      </c>
+      <c r="R23">
+        <v>1.311841832106086</v>
+      </c>
+      <c r="S23">
+        <v>1.311841832106086</v>
+      </c>
+      <c r="T23">
+        <v>1.112312261994076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7438671392546355</v>
+      </c>
+      <c r="D24">
+        <v>0.04493336651283013</v>
+      </c>
+      <c r="E24">
+        <v>0.04323703425380294</v>
+      </c>
+      <c r="F24">
+        <v>1.437118756671864</v>
+      </c>
+      <c r="G24">
+        <v>0.002303868019616903</v>
+      </c>
+      <c r="H24">
+        <v>1.478040375546571</v>
+      </c>
+      <c r="I24">
+        <v>0.002303868019616903</v>
+      </c>
+      <c r="J24">
+        <v>0.04323703425380294</v>
+      </c>
+      <c r="K24">
+        <v>0.04323703425380294</v>
+      </c>
+      <c r="L24">
+        <v>1.478040375546571</v>
+      </c>
+      <c r="M24">
+        <v>0.7401721217830941</v>
+      </c>
+      <c r="N24">
+        <v>0.7401721217830941</v>
+      </c>
+      <c r="O24">
+        <v>0.7414037942736079</v>
+      </c>
+      <c r="P24">
+        <v>0.507860425939997</v>
+      </c>
+      <c r="Q24">
+        <v>0.5078604259399971</v>
+      </c>
+      <c r="R24">
+        <v>0.3917045780184485</v>
+      </c>
+      <c r="S24">
+        <v>0.3917045780184485</v>
+      </c>
+      <c r="T24">
+        <v>0.6249167567098869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.253314960072905</v>
+      </c>
+      <c r="D25">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="E25">
+        <v>2.195642819680748</v>
+      </c>
+      <c r="F25">
+        <v>0.4768826445781498</v>
+      </c>
+      <c r="G25">
+        <v>2.359723982081764</v>
+      </c>
+      <c r="H25">
+        <v>0.06129398204738225</v>
+      </c>
+      <c r="I25">
+        <v>2.359723982081764</v>
+      </c>
+      <c r="J25">
+        <v>2.195642819680748</v>
+      </c>
+      <c r="K25">
+        <v>2.195642819680748</v>
+      </c>
+      <c r="L25">
+        <v>0.06129398204738225</v>
+      </c>
+      <c r="M25">
+        <v>1.210508982064573</v>
+      </c>
+      <c r="N25">
+        <v>1.210508982064573</v>
+      </c>
+      <c r="O25">
+        <v>1.224777641400684</v>
+      </c>
+      <c r="P25">
+        <v>1.538886927936632</v>
+      </c>
+      <c r="Q25">
+        <v>1.538886927936632</v>
+      </c>
+      <c r="R25">
+        <v>1.703075900872661</v>
+      </c>
+      <c r="S25">
+        <v>1.703075900872661</v>
+      </c>
+      <c r="T25">
+        <v>1.556077155980151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2.225291216432352</v>
+      </c>
+      <c r="D26">
+        <v>-0.0001223677793042235</v>
+      </c>
+      <c r="E26">
+        <v>5.38980186805323E-05</v>
+      </c>
+      <c r="F26">
+        <v>0.002627192334961447</v>
+      </c>
+      <c r="G26">
+        <v>7.670671026192249</v>
+      </c>
+      <c r="H26">
+        <v>0.001994453787480644</v>
+      </c>
+      <c r="I26">
+        <v>7.670671026192249</v>
+      </c>
+      <c r="J26">
+        <v>5.38980186805323E-05</v>
+      </c>
+      <c r="K26">
+        <v>5.38980186805323E-05</v>
+      </c>
+      <c r="L26">
+        <v>0.001994453787480644</v>
+      </c>
+      <c r="M26">
+        <v>3.836332739989865</v>
+      </c>
+      <c r="N26">
+        <v>3.836332739989865</v>
+      </c>
+      <c r="O26">
+        <v>3.299318898804027</v>
+      </c>
+      <c r="P26">
+        <v>2.55757312599947</v>
+      </c>
+      <c r="Q26">
+        <v>2.55757312599947</v>
+      </c>
+      <c r="R26">
+        <v>1.918193319004272</v>
+      </c>
+      <c r="S26">
+        <v>1.918193319004272</v>
+      </c>
+      <c r="T26">
+        <v>1.650085903164403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.951167112277634</v>
+      </c>
+      <c r="D27">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="E27">
+        <v>0.2434722769406729</v>
+      </c>
+      <c r="F27">
+        <v>1.055946429035</v>
+      </c>
+      <c r="G27">
+        <v>0.01254785470251997</v>
+      </c>
+      <c r="H27">
+        <v>1.467031158321971</v>
+      </c>
+      <c r="I27">
+        <v>0.01254785470251997</v>
+      </c>
+      <c r="J27">
+        <v>0.2434722769406729</v>
+      </c>
+      <c r="K27">
+        <v>0.2434722769406729</v>
+      </c>
+      <c r="L27">
+        <v>1.467031158321971</v>
+      </c>
+      <c r="M27">
+        <v>0.7397895065122454</v>
+      </c>
+      <c r="N27">
+        <v>0.7397895065122454</v>
+      </c>
+      <c r="O27">
+        <v>1.143582041767375</v>
+      </c>
+      <c r="P27">
+        <v>0.5743504299883879</v>
+      </c>
+      <c r="Q27">
+        <v>0.5743504299883879</v>
+      </c>
+      <c r="R27">
+        <v>0.4916308917264592</v>
+      </c>
+      <c r="S27">
+        <v>0.4916308917264592</v>
+      </c>
+      <c r="T27">
+        <v>0.7883190757330872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.2406045396100247</v>
+      </c>
+      <c r="D28">
+        <v>4.268200466166679</v>
+      </c>
+      <c r="E28">
+        <v>1.955682545332104</v>
+      </c>
+      <c r="F28">
+        <v>0.3387220736329988</v>
+      </c>
+      <c r="G28">
+        <v>2.909552588571048</v>
+      </c>
+      <c r="H28">
+        <v>1.572722086876986</v>
+      </c>
+      <c r="I28">
+        <v>2.909552588571048</v>
+      </c>
+      <c r="J28">
+        <v>1.955682545332104</v>
+      </c>
+      <c r="K28">
+        <v>1.955682545332104</v>
+      </c>
+      <c r="L28">
+        <v>1.572722086876986</v>
+      </c>
+      <c r="M28">
+        <v>2.241137337724017</v>
+      </c>
+      <c r="N28">
+        <v>2.241137337724017</v>
+      </c>
+      <c r="O28">
+        <v>1.57429307168602</v>
+      </c>
+      <c r="P28">
+        <v>2.145985740260046</v>
+      </c>
+      <c r="Q28">
+        <v>2.145985740260046</v>
+      </c>
+      <c r="R28">
+        <v>2.098409941528061</v>
+      </c>
+      <c r="S28">
+        <v>2.098409941528061</v>
+      </c>
+      <c r="T28">
+        <v>1.88091405003164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.4469154730294679</v>
+      </c>
+      <c r="D29">
+        <v>3.141440184864841</v>
+      </c>
+      <c r="E29">
+        <v>2.128012073770051</v>
+      </c>
+      <c r="F29">
+        <v>0.5428892139309058</v>
+      </c>
+      <c r="G29">
+        <v>2.233412236774328</v>
+      </c>
+      <c r="H29">
+        <v>1.344577607996484</v>
+      </c>
+      <c r="I29">
+        <v>2.233412236774328</v>
+      </c>
+      <c r="J29">
+        <v>2.128012073770051</v>
+      </c>
+      <c r="K29">
+        <v>2.128012073770051</v>
+      </c>
+      <c r="L29">
+        <v>1.344577607996484</v>
+      </c>
+      <c r="M29">
+        <v>1.788994922385406</v>
+      </c>
+      <c r="N29">
+        <v>1.788994922385406</v>
+      </c>
+      <c r="O29">
+        <v>1.341635105933427</v>
+      </c>
+      <c r="P29">
+        <v>1.902000639513621</v>
+      </c>
+      <c r="Q29">
+        <v>1.902000639513621</v>
+      </c>
+      <c r="R29">
+        <v>1.958503498077728</v>
+      </c>
+      <c r="S29">
+        <v>1.958503498077728</v>
+      </c>
+      <c r="T29">
+        <v>1.63954113172768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.856030319689789</v>
+      </c>
+      <c r="D30">
+        <v>0.8770477932532461</v>
+      </c>
+      <c r="E30">
+        <v>2.43083869514366</v>
+      </c>
+      <c r="F30">
+        <v>0.9362984759817191</v>
+      </c>
+      <c r="G30">
+        <v>0.9350638570461965</v>
+      </c>
+      <c r="H30">
+        <v>0.8766010036734747</v>
+      </c>
+      <c r="I30">
+        <v>0.9350638570461965</v>
+      </c>
+      <c r="J30">
+        <v>2.43083869514366</v>
+      </c>
+      <c r="K30">
+        <v>2.43083869514366</v>
+      </c>
+      <c r="L30">
+        <v>0.8766010036734747</v>
+      </c>
+      <c r="M30">
+        <v>0.9058324303598356</v>
+      </c>
+      <c r="N30">
+        <v>0.9058324303598356</v>
+      </c>
+      <c r="O30">
+        <v>0.8892317268031534</v>
+      </c>
+      <c r="P30">
+        <v>1.414167851954444</v>
+      </c>
+      <c r="Q30">
+        <v>1.414167851954444</v>
+      </c>
+      <c r="R30">
+        <v>1.668335562751748</v>
+      </c>
+      <c r="S30">
+        <v>1.668335562751748</v>
+      </c>
+      <c r="T30">
+        <v>1.151980024131348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8206129564135272</v>
+      </c>
+      <c r="D31">
+        <v>0.8389390206303784</v>
+      </c>
+      <c r="E31">
+        <v>3.108540898079916</v>
+      </c>
+      <c r="F31">
+        <v>0.9235905182715427</v>
+      </c>
+      <c r="G31">
+        <v>0.9694496357517584</v>
+      </c>
+      <c r="H31">
+        <v>0.8584891627943878</v>
+      </c>
+      <c r="I31">
+        <v>0.9694496357517584</v>
+      </c>
+      <c r="J31">
+        <v>3.108540898079916</v>
+      </c>
+      <c r="K31">
+        <v>3.108540898079916</v>
+      </c>
+      <c r="L31">
+        <v>0.8584891627943878</v>
+      </c>
+      <c r="M31">
+        <v>0.9139693992730731</v>
+      </c>
+      <c r="N31">
+        <v>0.9139693992730731</v>
+      </c>
+      <c r="O31">
+        <v>0.8828505849865578</v>
+      </c>
+      <c r="P31">
+        <v>1.645493232208687</v>
+      </c>
+      <c r="Q31">
+        <v>1.645493232208687</v>
+      </c>
+      <c r="R31">
+        <v>2.011255148676494</v>
+      </c>
+      <c r="S31">
+        <v>2.011255148676494</v>
+      </c>
+      <c r="T31">
+        <v>1.253270365323585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.03354169067452054</v>
+      </c>
+      <c r="D32">
+        <v>5.319590195852331</v>
+      </c>
+      <c r="E32">
+        <v>1.774586404430135</v>
+      </c>
+      <c r="F32">
+        <v>0.1320891401032877</v>
+      </c>
+      <c r="G32">
+        <v>4.379276799786302</v>
+      </c>
+      <c r="H32">
+        <v>1.77526128093863</v>
+      </c>
+      <c r="I32">
+        <v>4.379276799786302</v>
+      </c>
+      <c r="J32">
+        <v>1.774586404430135</v>
+      </c>
+      <c r="K32">
+        <v>1.774586404430135</v>
+      </c>
+      <c r="L32">
+        <v>1.77526128093863</v>
+      </c>
+      <c r="M32">
+        <v>3.077269040362466</v>
+      </c>
+      <c r="N32">
+        <v>3.077269040362466</v>
+      </c>
+      <c r="O32">
+        <v>2.062693257133151</v>
+      </c>
+      <c r="P32">
+        <v>2.643041495051689</v>
+      </c>
+      <c r="Q32">
+        <v>2.643041495051689</v>
+      </c>
+      <c r="R32">
+        <v>2.4259277223963</v>
+      </c>
+      <c r="S32">
+        <v>2.4259277223963</v>
+      </c>
+      <c r="T32">
+        <v>2.235724251964201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>3.406636220694736</v>
+      </c>
+      <c r="D33">
+        <v>-0.001357140015789474</v>
+      </c>
+      <c r="E33">
+        <v>5.005990693075261</v>
+      </c>
+      <c r="F33">
+        <v>0.005181390923157896</v>
+      </c>
+      <c r="G33">
+        <v>6.814890419515787</v>
+      </c>
+      <c r="H33">
+        <v>0.000953589023157895</v>
+      </c>
+      <c r="I33">
+        <v>6.814890419515787</v>
+      </c>
+      <c r="J33">
+        <v>5.005990693075261</v>
+      </c>
+      <c r="K33">
+        <v>5.005990693075261</v>
+      </c>
+      <c r="L33">
+        <v>0.000953589023157895</v>
+      </c>
+      <c r="M33">
+        <v>3.407922004269472</v>
+      </c>
+      <c r="N33">
+        <v>3.407922004269472</v>
+      </c>
+      <c r="O33">
+        <v>3.407493409744561</v>
+      </c>
+      <c r="P33">
+        <v>3.940611567204735</v>
+      </c>
+      <c r="Q33">
+        <v>3.940611567204735</v>
+      </c>
+      <c r="R33">
+        <v>4.206956348672366</v>
+      </c>
+      <c r="S33">
+        <v>4.206956348672366</v>
+      </c>
+      <c r="T33">
+        <v>2.538715862202718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.03246660502157895</v>
+      </c>
+      <c r="D34">
+        <v>5.109614947677895</v>
+      </c>
+      <c r="E34">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="F34">
+        <v>0.1269133485031579</v>
+      </c>
+      <c r="G34">
+        <v>5.005963437736842</v>
+      </c>
+      <c r="H34">
+        <v>1.705068172310526</v>
+      </c>
+      <c r="I34">
+        <v>5.005963437736842</v>
+      </c>
+      <c r="J34">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="K34">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="L34">
+        <v>1.705068172310526</v>
+      </c>
+      <c r="M34">
+        <v>3.355515805023684</v>
+      </c>
+      <c r="N34">
+        <v>3.355515805023684</v>
+      </c>
+      <c r="O34">
+        <v>2.247832738356316</v>
+      </c>
+      <c r="P34">
+        <v>3.071711661530175</v>
+      </c>
+      <c r="Q34">
+        <v>3.071711661530174</v>
+      </c>
+      <c r="R34">
+        <v>2.929809589783419</v>
+      </c>
+      <c r="S34">
+        <v>2.929809589783419</v>
+      </c>
+      <c r="T34">
+        <v>2.414021647632192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4369155123294761</v>
+      </c>
+      <c r="D35">
+        <v>0.4556216075653894</v>
+      </c>
+      <c r="E35">
+        <v>16.38501025765853</v>
+      </c>
+      <c r="F35">
+        <v>0.4817020843687536</v>
+      </c>
+      <c r="G35">
+        <v>0.4051617344198129</v>
+      </c>
+      <c r="H35">
+        <v>0.4396228909860921</v>
+      </c>
+      <c r="I35">
+        <v>0.4051617344198129</v>
+      </c>
+      <c r="J35">
+        <v>16.38501025765853</v>
+      </c>
+      <c r="K35">
+        <v>16.38501025765853</v>
+      </c>
+      <c r="L35">
+        <v>0.4396228909860921</v>
+      </c>
+      <c r="M35">
+        <v>0.4223923127029525</v>
+      </c>
+      <c r="N35">
+        <v>0.4223923127029525</v>
+      </c>
+      <c r="O35">
+        <v>0.4272333792451271</v>
+      </c>
+      <c r="P35">
+        <v>5.743264961021477</v>
+      </c>
+      <c r="Q35">
+        <v>5.743264961021478</v>
+      </c>
+      <c r="R35">
+        <v>8.403701285180741</v>
+      </c>
+      <c r="S35">
+        <v>8.403701285180741</v>
+      </c>
+      <c r="T35">
+        <v>3.100672347888009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000254700562312</v>
+      </c>
+      <c r="D36">
+        <v>0.9681699309966453</v>
+      </c>
+      <c r="E36">
+        <v>1.031086436960122</v>
+      </c>
+      <c r="F36">
+        <v>1.002454315668719</v>
+      </c>
+      <c r="G36">
+        <v>0.981409869551117</v>
+      </c>
+      <c r="H36">
+        <v>1.010369271932264</v>
+      </c>
+      <c r="I36">
+        <v>0.981409869551117</v>
+      </c>
+      <c r="J36">
+        <v>1.031086436960122</v>
+      </c>
+      <c r="K36">
+        <v>1.031086436960122</v>
+      </c>
+      <c r="L36">
+        <v>1.010369271932264</v>
+      </c>
+      <c r="M36">
+        <v>0.9958895707416904</v>
+      </c>
+      <c r="N36">
+        <v>0.9958895707416904</v>
+      </c>
+      <c r="O36">
+        <v>0.9973446140152308</v>
+      </c>
+      <c r="P36">
+        <v>1.007621859481167</v>
+      </c>
+      <c r="Q36">
+        <v>1.007621859481167</v>
+      </c>
+      <c r="R36">
+        <v>1.013488003850906</v>
+      </c>
+      <c r="S36">
+        <v>1.013488003850906</v>
+      </c>
+      <c r="T36">
+        <v>0.9989574209451965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9997807826760507</v>
+      </c>
+      <c r="D37">
+        <v>1.04540359904483</v>
+      </c>
+      <c r="E37">
+        <v>0.9761611713449719</v>
+      </c>
+      <c r="F37">
+        <v>1.000915227205551</v>
+      </c>
+      <c r="G37">
+        <v>1.053402545331116</v>
+      </c>
+      <c r="H37">
+        <v>0.9765831776914726</v>
+      </c>
+      <c r="I37">
+        <v>1.053402545331116</v>
+      </c>
+      <c r="J37">
+        <v>0.9761611713449719</v>
+      </c>
+      <c r="K37">
+        <v>0.9761611713449719</v>
+      </c>
+      <c r="L37">
+        <v>0.9765831776914726</v>
+      </c>
+      <c r="M37">
+        <v>1.014992861511294</v>
+      </c>
+      <c r="N37">
+        <v>1.014992861511294</v>
+      </c>
+      <c r="O37">
+        <v>1.009922168566213</v>
+      </c>
+      <c r="P37">
+        <v>1.002048964789187</v>
+      </c>
+      <c r="Q37">
+        <v>1.002048964789187</v>
+      </c>
+      <c r="R37">
+        <v>0.9955770164281329</v>
+      </c>
+      <c r="S37">
+        <v>0.9955770164281329</v>
+      </c>
+      <c r="T37">
+        <v>1.008707750548999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9844807803582184</v>
+      </c>
+      <c r="D38">
+        <v>1.000878197936839</v>
+      </c>
+      <c r="E38">
+        <v>1.030282999110336</v>
+      </c>
+      <c r="F38">
+        <v>0.9786604129320426</v>
+      </c>
+      <c r="G38">
+        <v>1.236332324159669</v>
+      </c>
+      <c r="H38">
+        <v>1.078418074592537</v>
+      </c>
+      <c r="I38">
+        <v>1.236332324159669</v>
+      </c>
+      <c r="J38">
+        <v>1.030282999110336</v>
+      </c>
+      <c r="K38">
+        <v>1.030282999110336</v>
+      </c>
+      <c r="L38">
+        <v>1.078418074592537</v>
+      </c>
+      <c r="M38">
+        <v>1.157375199376103</v>
+      </c>
+      <c r="N38">
+        <v>1.157375199376103</v>
+      </c>
+      <c r="O38">
+        <v>1.099743726370142</v>
+      </c>
+      <c r="P38">
+        <v>1.115011132620847</v>
+      </c>
+      <c r="Q38">
+        <v>1.115011132620847</v>
+      </c>
+      <c r="R38">
+        <v>1.093829099243219</v>
+      </c>
+      <c r="S38">
+        <v>1.093829099243219</v>
+      </c>
+      <c r="T38">
+        <v>1.051508798181607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.088807031191902</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.680165514670602</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.096734407992369</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9369052185306911</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.7134201058205806</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.098285379294338</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.7134201058205806</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.096734407992369</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.096734407992369</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.098285379294338</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9058527425574592</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9058527425574592</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.966837505435607</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9694799643690959</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9694799643690958</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.001293575274914</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.001293575274914</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9357196095834137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9198465848506756</v>
+      </c>
+      <c r="D40">
+        <v>0.8633979588803194</v>
+      </c>
+      <c r="E40">
+        <v>1.943934907918076</v>
+      </c>
+      <c r="F40">
+        <v>0.9396874303973731</v>
+      </c>
+      <c r="G40">
+        <v>0.9468238170950675</v>
+      </c>
+      <c r="H40">
+        <v>0.8723251767780055</v>
+      </c>
+      <c r="I40">
+        <v>0.9468238170950675</v>
+      </c>
+      <c r="J40">
+        <v>1.943934907918076</v>
+      </c>
+      <c r="K40">
+        <v>1.943934907918076</v>
+      </c>
+      <c r="L40">
+        <v>0.8723251767780055</v>
+      </c>
+      <c r="M40">
+        <v>0.9095744969365365</v>
+      </c>
+      <c r="N40">
+        <v>0.9095744969365365</v>
+      </c>
+      <c r="O40">
+        <v>0.9129985262412496</v>
+      </c>
+      <c r="P40">
+        <v>1.25436130059705</v>
+      </c>
+      <c r="Q40">
+        <v>1.25436130059705</v>
+      </c>
+      <c r="R40">
+        <v>1.426754702427306</v>
+      </c>
+      <c r="S40">
+        <v>1.426754702427306</v>
+      </c>
+      <c r="T40">
+        <v>1.081002645986586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.6682195698198167</v>
+      </c>
+      <c r="D41">
+        <v>1.403889866404982</v>
+      </c>
+      <c r="E41">
+        <v>1.089458707899161</v>
+      </c>
+      <c r="F41">
+        <v>1.163708059961304</v>
+      </c>
+      <c r="G41">
+        <v>0.4811299782088445</v>
+      </c>
+      <c r="H41">
+        <v>1.137239365503317</v>
+      </c>
+      <c r="I41">
+        <v>0.4811299782088445</v>
+      </c>
+      <c r="J41">
+        <v>1.089458707899161</v>
+      </c>
+      <c r="K41">
+        <v>1.089458707899161</v>
+      </c>
+      <c r="L41">
+        <v>1.137239365503317</v>
+      </c>
+      <c r="M41">
+        <v>0.8091846718560808</v>
+      </c>
+      <c r="N41">
+        <v>0.8091846718560808</v>
+      </c>
+      <c r="O41">
+        <v>0.7621963045106593</v>
+      </c>
+      <c r="P41">
+        <v>0.9026093505371074</v>
+      </c>
+      <c r="Q41">
+        <v>0.9026093505371074</v>
+      </c>
+      <c r="R41">
+        <v>0.9493216898776209</v>
+      </c>
+      <c r="S41">
+        <v>0.9493216898776209</v>
+      </c>
+      <c r="T41">
+        <v>0.9906075912995709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.6043586993771783</v>
+      </c>
+      <c r="D42">
+        <v>1.558264048630329</v>
+      </c>
+      <c r="E42">
+        <v>1.771203245679554</v>
+      </c>
+      <c r="F42">
+        <v>1.038274713743528</v>
+      </c>
+      <c r="G42">
+        <v>0.5903299228948865</v>
+      </c>
+      <c r="H42">
+        <v>0.9442924166893453</v>
+      </c>
+      <c r="I42">
+        <v>0.5903299228948865</v>
+      </c>
+      <c r="J42">
+        <v>1.771203245679554</v>
+      </c>
+      <c r="K42">
+        <v>1.771203245679554</v>
+      </c>
+      <c r="L42">
+        <v>0.9442924166893453</v>
+      </c>
+      <c r="M42">
+        <v>0.7673111697921159</v>
+      </c>
+      <c r="N42">
+        <v>0.7673111697921159</v>
+      </c>
+      <c r="O42">
+        <v>0.7129936796538034</v>
+      </c>
+      <c r="P42">
+        <v>1.101941861754595</v>
+      </c>
+      <c r="Q42">
+        <v>1.101941861754595</v>
+      </c>
+      <c r="R42">
+        <v>1.269257207735835</v>
+      </c>
+      <c r="S42">
+        <v>1.269257207735835</v>
+      </c>
+      <c r="T42">
+        <v>1.084453841169137</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.075517402241925</v>
+        <v>0.998453839946137</v>
       </c>
       <c r="D3">
-        <v>1.130506158330388</v>
+        <v>0.9942855706811037</v>
       </c>
       <c r="E3">
-        <v>1.029296193134856</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="F3">
-        <v>1.075517402241925</v>
+        <v>1.000271296349319</v>
       </c>
       <c r="G3">
-        <v>1.196165929180897</v>
+        <v>1.03287941147511</v>
       </c>
       <c r="H3">
-        <v>0.9609230383288436</v>
+        <v>0.9926410730429109</v>
       </c>
       <c r="I3">
-        <v>0.9562745039752695</v>
+        <v>1.03287941147511</v>
       </c>
       <c r="J3">
-        <v>1.130506158330388</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="K3">
-        <v>1.075517402241925</v>
+        <v>1.052501816553491</v>
       </c>
       <c r="L3">
-        <v>1.029296193134856</v>
+        <v>0.9926410730429109</v>
       </c>
       <c r="M3">
-        <v>1.079901175732622</v>
+        <v>1.012760242259011</v>
       </c>
       <c r="N3">
-        <v>1.079901175732622</v>
+        <v>1.012760242259011</v>
       </c>
       <c r="O3">
-        <v>1.040241796598029</v>
+        <v>1.007991441488053</v>
       </c>
       <c r="P3">
-        <v>1.078439917902389</v>
+        <v>1.026007433690504</v>
       </c>
       <c r="Q3">
-        <v>1.07843991790239</v>
+        <v>1.026007433690504</v>
       </c>
       <c r="R3">
-        <v>1.077709288987273</v>
+        <v>1.032631029406251</v>
       </c>
       <c r="S3">
-        <v>1.077709288987273</v>
+        <v>1.032631029406251</v>
       </c>
       <c r="T3">
-        <v>1.058113870865363</v>
+        <v>1.011838834674679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.103969556861851</v>
+        <v>0.9198465848506756</v>
       </c>
       <c r="D4">
-        <v>1.204465782221185</v>
+        <v>0.8633979588803194</v>
       </c>
       <c r="E4">
-        <v>1.060006336512867</v>
+        <v>1.943934907918076</v>
       </c>
       <c r="F4">
-        <v>1.103969556861851</v>
+        <v>0.9396874303973731</v>
       </c>
       <c r="G4">
-        <v>1.427852674521916</v>
+        <v>0.9468238170950675</v>
       </c>
       <c r="H4">
-        <v>0.9040874250574215</v>
+        <v>0.8723251767780055</v>
       </c>
       <c r="I4">
-        <v>0.9586205680769918</v>
+        <v>0.9468238170950675</v>
       </c>
       <c r="J4">
-        <v>1.204465782221185</v>
+        <v>1.943934907918076</v>
       </c>
       <c r="K4">
-        <v>1.103969556861851</v>
+        <v>1.943934907918076</v>
       </c>
       <c r="L4">
-        <v>1.060006336512867</v>
+        <v>0.8723251767780055</v>
       </c>
       <c r="M4">
-        <v>1.132236059367026</v>
+        <v>0.9095744969365365</v>
       </c>
       <c r="N4">
-        <v>1.132236059367026</v>
+        <v>0.9095744969365365</v>
       </c>
       <c r="O4">
-        <v>1.056186514597158</v>
+        <v>0.9129985262412496</v>
       </c>
       <c r="P4">
-        <v>1.122813891865301</v>
+        <v>1.25436130059705</v>
       </c>
       <c r="Q4">
-        <v>1.122813891865301</v>
+        <v>1.25436130059705</v>
       </c>
       <c r="R4">
-        <v>1.118102808114438</v>
+        <v>1.426754702427306</v>
       </c>
       <c r="S4">
-        <v>1.118102808114438</v>
+        <v>1.426754702427306</v>
       </c>
       <c r="T4">
-        <v>1.109833723875372</v>
+        <v>1.081002645986586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.275125397922194</v>
+        <v>0.80971459837995</v>
       </c>
       <c r="D5">
-        <v>1.456267793445341</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="E5">
-        <v>1.372887266745037</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="F5">
-        <v>1.275125397922194</v>
+        <v>0.8996249391329799</v>
       </c>
       <c r="G5">
-        <v>1.918670222849598</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="H5">
-        <v>0.7629082447263449</v>
+        <v>0.8995547410717861</v>
       </c>
       <c r="I5">
-        <v>0.8035501848167851</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="J5">
-        <v>1.456267793445341</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="K5">
-        <v>1.275125397922194</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="L5">
-        <v>1.372887266745037</v>
+        <v>0.8995547410717861</v>
       </c>
       <c r="M5">
-        <v>1.414577530095189</v>
+        <v>0.9118544585751032</v>
       </c>
       <c r="N5">
-        <v>1.414577530095189</v>
+        <v>0.9118544585751032</v>
       </c>
       <c r="O5">
-        <v>1.197354434972241</v>
+        <v>0.8778078385100522</v>
       </c>
       <c r="P5">
-        <v>1.368093486037524</v>
+        <v>1.65061377481208</v>
       </c>
       <c r="Q5">
-        <v>1.368093486037524</v>
+        <v>1.65061377481208</v>
       </c>
       <c r="R5">
-        <v>1.344851464008692</v>
+        <v>2.019993432930569</v>
       </c>
       <c r="S5">
-        <v>1.344851464008692</v>
+        <v>2.019993432930569</v>
       </c>
       <c r="T5">
-        <v>1.26490151841755</v>
+        <v>1.281346837388691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.238600064254573</v>
+        <v>0.4369155123294761</v>
       </c>
       <c r="D6">
-        <v>3.277579610696109</v>
+        <v>0.4556216075653894</v>
       </c>
       <c r="E6">
-        <v>0.7246722476480973</v>
+        <v>16.38501025765853</v>
       </c>
       <c r="F6">
-        <v>2.238600064254573</v>
+        <v>0.4817020843687536</v>
       </c>
       <c r="G6">
-        <v>2.218885252296807</v>
+        <v>0.4051617344198129</v>
       </c>
       <c r="H6">
-        <v>0.3868278825774976</v>
+        <v>0.4396228909860921</v>
       </c>
       <c r="I6">
-        <v>0.6750029706574739</v>
+        <v>0.4051617344198129</v>
       </c>
       <c r="J6">
-        <v>3.277579610696109</v>
+        <v>16.38501025765853</v>
       </c>
       <c r="K6">
-        <v>2.238600064254573</v>
+        <v>16.38501025765853</v>
       </c>
       <c r="L6">
-        <v>0.7246722476480973</v>
+        <v>0.4396228909860921</v>
       </c>
       <c r="M6">
-        <v>2.001125929172103</v>
+        <v>0.4223923127029525</v>
       </c>
       <c r="N6">
-        <v>2.001125929172103</v>
+        <v>0.4223923127029525</v>
       </c>
       <c r="O6">
-        <v>1.463026580307235</v>
+        <v>0.4272333792451271</v>
       </c>
       <c r="P6">
-        <v>2.080283974199593</v>
+        <v>5.743264961021477</v>
       </c>
       <c r="Q6">
-        <v>2.080283974199593</v>
+        <v>5.743264961021478</v>
       </c>
       <c r="R6">
-        <v>2.119862996713338</v>
+        <v>8.403701285180741</v>
       </c>
       <c r="S6">
-        <v>2.119862996713338</v>
+        <v>8.403701285180741</v>
       </c>
       <c r="T6">
-        <v>1.586928004688426</v>
+        <v>3.100672347888009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.02561603555661</v>
+        <v>0.9536199835091309</v>
       </c>
       <c r="D7">
-        <v>1.007650245354307</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="E7">
-        <v>0.9986877379829663</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="F7">
-        <v>1.02561603555661</v>
+        <v>0.9609301307710889</v>
       </c>
       <c r="G7">
-        <v>0.9972897873623759</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="H7">
-        <v>0.9993406573365426</v>
+        <v>1.031564002918908</v>
       </c>
       <c r="I7">
-        <v>0.9988439323883264</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="J7">
-        <v>1.007650245354307</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="K7">
-        <v>1.02561603555661</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="L7">
-        <v>0.9986877379829663</v>
+        <v>1.031564002918908</v>
       </c>
       <c r="M7">
-        <v>1.003168991668637</v>
+        <v>1.069455707393746</v>
       </c>
       <c r="N7">
-        <v>1.003168991668637</v>
+        <v>1.069455707393746</v>
       </c>
       <c r="O7">
-        <v>1.001892880224605</v>
+        <v>1.030843799432207</v>
       </c>
       <c r="P7">
-        <v>1.010651339631295</v>
+        <v>1.062240316340737</v>
       </c>
       <c r="Q7">
-        <v>1.010651339631294</v>
+        <v>1.062240316340737</v>
       </c>
       <c r="R7">
-        <v>1.014392513612624</v>
+        <v>1.058632620814232</v>
       </c>
       <c r="S7">
-        <v>1.014392513612624</v>
+        <v>1.058632620814232</v>
       </c>
       <c r="T7">
-        <v>1.004571399330188</v>
+        <v>1.055982040020493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.052501816553486</v>
+        <v>0.9997807826760507</v>
       </c>
       <c r="D8">
-        <v>1.03287941147511</v>
+        <v>1.04540359904483</v>
       </c>
       <c r="E8">
-        <v>0.9926410730429103</v>
+        <v>0.9761611713449719</v>
       </c>
       <c r="F8">
-        <v>1.052501816553486</v>
+        <v>1.000915227205551</v>
       </c>
       <c r="G8">
-        <v>0.994285570681103</v>
+        <v>1.053402545331116</v>
       </c>
       <c r="H8">
-        <v>0.9984538399461382</v>
+        <v>0.9765831776914726</v>
       </c>
       <c r="I8">
-        <v>1.000271296349319</v>
+        <v>1.053402545331116</v>
       </c>
       <c r="J8">
-        <v>1.03287941147511</v>
+        <v>0.9761611713449719</v>
       </c>
       <c r="K8">
-        <v>1.052501816553486</v>
+        <v>0.9761611713449719</v>
       </c>
       <c r="L8">
-        <v>0.9926410730429103</v>
+        <v>0.9765831776914726</v>
       </c>
       <c r="M8">
-        <v>1.01276024225901</v>
+        <v>1.014992861511294</v>
       </c>
       <c r="N8">
-        <v>1.01276024225901</v>
+        <v>1.014992861511294</v>
       </c>
       <c r="O8">
-        <v>1.007991441488053</v>
+        <v>1.009922168566213</v>
       </c>
       <c r="P8">
-        <v>1.026007433690502</v>
+        <v>1.002048964789187</v>
       </c>
       <c r="Q8">
-        <v>1.026007433690502</v>
+        <v>1.002048964789187</v>
       </c>
       <c r="R8">
-        <v>1.032631029406248</v>
+        <v>0.9955770164281329</v>
       </c>
       <c r="S8">
-        <v>1.032631029406248</v>
+        <v>0.9955770164281329</v>
       </c>
       <c r="T8">
-        <v>1.011838834674678</v>
+        <v>1.008707750548999</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.07257752020572</v>
+        <v>0.9040874250574215</v>
       </c>
       <c r="D9">
-        <v>1.100568736114495</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="E9">
-        <v>0.9814066430998974</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="F9">
-        <v>1.07257752020572</v>
+        <v>0.9586205680769918</v>
       </c>
       <c r="G9">
-        <v>0.9560578556864886</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="H9">
-        <v>1.002107941126507</v>
+        <v>1.060006336512867</v>
       </c>
       <c r="I9">
-        <v>0.9968486217955252</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="J9">
-        <v>1.100568736114495</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="K9">
-        <v>1.07257752020572</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="L9">
-        <v>0.9814066430998974</v>
+        <v>1.060006336512867</v>
       </c>
       <c r="M9">
-        <v>1.040987689607196</v>
+        <v>1.132236059367026</v>
       </c>
       <c r="N9">
-        <v>1.040987689607196</v>
+        <v>1.132236059367026</v>
       </c>
       <c r="O9">
-        <v>1.028027773446966</v>
+        <v>1.056186514597158</v>
       </c>
       <c r="P9">
-        <v>1.051517633140038</v>
+        <v>1.122813891865301</v>
       </c>
       <c r="Q9">
-        <v>1.051517633140038</v>
+        <v>1.122813891865301</v>
       </c>
       <c r="R9">
-        <v>1.056782604906458</v>
+        <v>1.118102808114439</v>
       </c>
       <c r="S9">
-        <v>1.056782604906458</v>
+        <v>1.118102808114439</v>
       </c>
       <c r="T9">
-        <v>1.018261219671439</v>
+        <v>1.109833723875372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.166535673079423</v>
+        <v>0.4177373726765574</v>
       </c>
       <c r="D10">
-        <v>1.147242143635425</v>
+        <v>0.4150202898035568</v>
       </c>
       <c r="E10">
-        <v>0.9773479108030551</v>
+        <v>16.72606622617658</v>
       </c>
       <c r="F10">
-        <v>1.166535673079423</v>
+        <v>0.4595515953315276</v>
       </c>
       <c r="G10">
-        <v>0.9745599959497731</v>
+        <v>0.4540449105038262</v>
       </c>
       <c r="H10">
-        <v>0.9919229015534577</v>
+        <v>0.4067664264598636</v>
       </c>
       <c r="I10">
-        <v>0.9855617477438051</v>
+        <v>0.4540449105038262</v>
       </c>
       <c r="J10">
-        <v>1.147242143635425</v>
+        <v>16.72606622617658</v>
       </c>
       <c r="K10">
-        <v>1.166535673079423</v>
+        <v>16.72606622617658</v>
       </c>
       <c r="L10">
-        <v>0.9773479108030551</v>
+        <v>0.4067664264598636</v>
       </c>
       <c r="M10">
-        <v>1.06229502721924</v>
+        <v>0.4304056684818449</v>
       </c>
       <c r="N10">
-        <v>1.06229502721924</v>
+        <v>0.4304056684818449</v>
       </c>
       <c r="O10">
-        <v>1.038837651997313</v>
+        <v>0.4261829032134157</v>
       </c>
       <c r="P10">
-        <v>1.097041909172635</v>
+        <v>5.862292521046758</v>
       </c>
       <c r="Q10">
-        <v>1.097041909172635</v>
+        <v>5.862292521046758</v>
       </c>
       <c r="R10">
-        <v>1.114415350149332</v>
+        <v>8.578235947329215</v>
       </c>
       <c r="S10">
-        <v>1.114415350149332</v>
+        <v>8.578235947329215</v>
       </c>
       <c r="T10">
-        <v>1.040528395460823</v>
+        <v>3.14653113682532</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.40062905144651</v>
+        <v>0.4826953861439423</v>
       </c>
       <c r="D11">
-        <v>1.444134677132659</v>
+        <v>1.242616079988111</v>
       </c>
       <c r="E11">
-        <v>1.001974548398665</v>
+        <v>2.025552846997402</v>
       </c>
       <c r="F11">
-        <v>1.40062905144651</v>
+        <v>1.186638856737762</v>
       </c>
       <c r="G11">
-        <v>0.9107505266245541</v>
+        <v>0.3071294600657896</v>
       </c>
       <c r="H11">
-        <v>0.9764647188484441</v>
+        <v>1.078892258265857</v>
       </c>
       <c r="I11">
-        <v>0.9399200495136247</v>
+        <v>0.3071294600657896</v>
       </c>
       <c r="J11">
-        <v>1.444134677132659</v>
+        <v>2.025552846997402</v>
       </c>
       <c r="K11">
-        <v>1.40062905144651</v>
+        <v>2.025552846997402</v>
       </c>
       <c r="L11">
-        <v>1.001974548398665</v>
+        <v>1.078892258265857</v>
       </c>
       <c r="M11">
-        <v>1.223054612765662</v>
+        <v>0.6930108591658232</v>
       </c>
       <c r="N11">
-        <v>1.223054612765662</v>
+        <v>0.6930108591658232</v>
       </c>
       <c r="O11">
-        <v>1.140857981459923</v>
+        <v>0.6229057014918629</v>
       </c>
       <c r="P11">
-        <v>1.282246092325945</v>
+        <v>1.13719152177635</v>
       </c>
       <c r="Q11">
-        <v>1.282246092325945</v>
+        <v>1.13719152177635</v>
       </c>
       <c r="R11">
-        <v>1.311841832106086</v>
+        <v>1.359281853081613</v>
       </c>
       <c r="S11">
-        <v>1.311841832106086</v>
+        <v>1.359281853081613</v>
       </c>
       <c r="T11">
-        <v>1.112312261994076</v>
+        <v>1.053920814699811</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.04323703425380294</v>
+        <v>0.7881929828473356</v>
       </c>
       <c r="D12">
-        <v>0.00230386801961691</v>
+        <v>0.8605387539555995</v>
       </c>
       <c r="E12">
-        <v>1.47804037554657</v>
+        <v>4.184005176183452</v>
       </c>
       <c r="F12">
-        <v>0.04323703425380294</v>
+        <v>0.8651942401567628</v>
       </c>
       <c r="G12">
-        <v>0.04493336651283013</v>
+        <v>0.8235776571694822</v>
       </c>
       <c r="H12">
-        <v>0.7438671392546359</v>
+        <v>0.793602647968344</v>
       </c>
       <c r="I12">
-        <v>1.437118756671865</v>
+        <v>0.8235776571694822</v>
       </c>
       <c r="J12">
-        <v>0.00230386801961691</v>
+        <v>4.184005176183452</v>
       </c>
       <c r="K12">
-        <v>0.04323703425380294</v>
+        <v>4.184005176183452</v>
       </c>
       <c r="L12">
-        <v>1.47804037554657</v>
+        <v>0.793602647968344</v>
       </c>
       <c r="M12">
-        <v>0.7401721217830936</v>
+        <v>0.8085901525689131</v>
       </c>
       <c r="N12">
-        <v>0.7401721217830936</v>
+        <v>0.8085901525689131</v>
       </c>
       <c r="O12">
-        <v>0.7414037942736077</v>
+        <v>0.8017910959950539</v>
       </c>
       <c r="P12">
-        <v>0.5078604259399967</v>
+        <v>1.933728493773759</v>
       </c>
       <c r="Q12">
-        <v>0.5078604259399967</v>
+        <v>1.933728493773759</v>
       </c>
       <c r="R12">
-        <v>0.3917045780184482</v>
+        <v>2.496297664376183</v>
       </c>
       <c r="S12">
-        <v>0.3917045780184482</v>
+        <v>2.496297664376183</v>
       </c>
       <c r="T12">
-        <v>0.6249167567098869</v>
+        <v>1.385851909713496</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.195642819680748</v>
+        <v>1.108121203434596</v>
       </c>
       <c r="D13">
-        <v>2.359723982081764</v>
+        <v>1.017281727381781</v>
       </c>
       <c r="E13">
-        <v>0.06129398204738203</v>
+        <v>1.142096761183624</v>
       </c>
       <c r="F13">
-        <v>2.195642819680748</v>
+        <v>0.9447102995357209</v>
       </c>
       <c r="G13">
-        <v>2.989604547419958</v>
+        <v>1.356421852716105</v>
       </c>
       <c r="H13">
-        <v>1.253314960072905</v>
+        <v>0.9473410237665644</v>
       </c>
       <c r="I13">
-        <v>0.4768826445781498</v>
+        <v>1.356421852716105</v>
       </c>
       <c r="J13">
-        <v>2.359723982081764</v>
+        <v>1.142096761183624</v>
       </c>
       <c r="K13">
-        <v>2.195642819680748</v>
+        <v>1.142096761183624</v>
       </c>
       <c r="L13">
-        <v>0.06129398204738203</v>
+        <v>0.9473410237665644</v>
       </c>
       <c r="M13">
-        <v>1.210508982064573</v>
+        <v>1.151881438241335</v>
       </c>
       <c r="N13">
-        <v>1.210508982064573</v>
+        <v>1.151881438241335</v>
       </c>
       <c r="O13">
-        <v>1.224777641400683</v>
+        <v>1.137294693305755</v>
       </c>
       <c r="P13">
-        <v>1.538886927936631</v>
+        <v>1.148619879222098</v>
       </c>
       <c r="Q13">
-        <v>1.538886927936631</v>
+        <v>1.148619879222098</v>
       </c>
       <c r="R13">
-        <v>1.70307590087266</v>
+        <v>1.14698909971248</v>
       </c>
       <c r="S13">
-        <v>1.70307590087266</v>
+        <v>1.14698909971248</v>
       </c>
       <c r="T13">
-        <v>1.556077155980151</v>
+        <v>1.085995478003065</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.389801868053286E-05</v>
+        <v>0.002542095699999998</v>
       </c>
       <c r="D14">
-        <v>7.670671026192246</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="E14">
-        <v>0.001994453787480646</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="F14">
-        <v>5.389801868053286E-05</v>
+        <v>0.003743037199999997</v>
       </c>
       <c r="G14">
-        <v>-0.0001223677793042244</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="H14">
-        <v>2.22529121643235</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="I14">
-        <v>0.00262719233496145</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="J14">
-        <v>7.670671026192246</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="K14">
-        <v>5.389801868053286E-05</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="L14">
-        <v>0.001994453787480646</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M14">
-        <v>3.836332739989863</v>
+        <v>0.0009336855000000008</v>
       </c>
       <c r="N14">
-        <v>3.836332739989863</v>
+        <v>0.0009336855000000008</v>
       </c>
       <c r="O14">
-        <v>3.299318898804026</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P14">
-        <v>2.557573125999469</v>
+        <v>10.12794779033332</v>
       </c>
       <c r="Q14">
-        <v>2.557573125999469</v>
+        <v>10.12794779033332</v>
       </c>
       <c r="R14">
-        <v>1.918193319004272</v>
+        <v>15.19145484274998</v>
       </c>
       <c r="S14">
-        <v>1.918193319004272</v>
+        <v>15.19145484274998</v>
       </c>
       <c r="T14">
-        <v>1.650085903164402</v>
+        <v>5.064556055499993</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.2434722769406729</v>
+        <v>0.013834371</v>
       </c>
       <c r="D15">
-        <v>0.01254785470251998</v>
+        <v>0.0062360681</v>
       </c>
       <c r="E15">
-        <v>1.467031158321971</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F15">
-        <v>0.2434722769406729</v>
+        <v>-0.0045788157</v>
       </c>
       <c r="G15">
-        <v>-0.0002503768792746597</v>
+        <v>60.759821</v>
       </c>
       <c r="H15">
-        <v>1.951167112277634</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="I15">
-        <v>1.055946429035</v>
+        <v>60.759821</v>
       </c>
       <c r="J15">
-        <v>0.01254785470251998</v>
+        <v>0.0030969418</v>
       </c>
       <c r="K15">
-        <v>0.2434722769406729</v>
+        <v>0.0030969418</v>
       </c>
       <c r="L15">
-        <v>1.467031158321971</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="M15">
-        <v>0.7397895065122454</v>
+        <v>30.3766938643</v>
       </c>
       <c r="N15">
-        <v>0.7397895065122454</v>
+        <v>30.3766938643</v>
       </c>
       <c r="O15">
-        <v>1.143582041767375</v>
+        <v>20.25574069986667</v>
       </c>
       <c r="P15">
-        <v>0.5743504299883879</v>
+        <v>20.2521615568</v>
       </c>
       <c r="Q15">
-        <v>0.5743504299883879</v>
+        <v>20.2521615568</v>
       </c>
       <c r="R15">
-        <v>0.4916308917264592</v>
+        <v>15.18989540305</v>
       </c>
       <c r="S15">
-        <v>0.4916308917264592</v>
+        <v>15.18989540305</v>
       </c>
       <c r="T15">
-        <v>0.7883190757330872</v>
+        <v>10.12866271563333</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.031086436960121</v>
+        <v>0.0025420957</v>
       </c>
       <c r="D16">
-        <v>0.9814098695511184</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="E16">
-        <v>1.010369271932264</v>
+        <v>30.381976</v>
       </c>
       <c r="F16">
-        <v>1.031086436960121</v>
+        <v>0.0037430372</v>
       </c>
       <c r="G16">
-        <v>0.9681699309966444</v>
+        <v>0.0030969418</v>
       </c>
       <c r="H16">
-        <v>1.000254700562311</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="I16">
-        <v>1.002454315668721</v>
+        <v>0.0030969418</v>
       </c>
       <c r="J16">
-        <v>0.9814098695511184</v>
+        <v>30.381976</v>
       </c>
       <c r="K16">
-        <v>1.031086436960121</v>
+        <v>30.381976</v>
       </c>
       <c r="L16">
-        <v>1.010369271932264</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M16">
-        <v>0.9958895707416913</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N16">
-        <v>0.9958895707416913</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O16">
-        <v>0.9973446140152312</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P16">
-        <v>1.007621859481168</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q16">
-        <v>1.007621859481168</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R16">
-        <v>1.013488003850906</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S16">
-        <v>1.013488003850906</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T16">
-        <v>0.9989574209451968</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.976161171344973</v>
+        <v>10.96953</v>
       </c>
       <c r="D17">
-        <v>1.053402545331115</v>
+        <v>-0.0011061617</v>
       </c>
       <c r="E17">
-        <v>0.9765831776914727</v>
+        <v>0.00074057934</v>
       </c>
       <c r="F17">
-        <v>0.976161171344973</v>
+        <v>0.0013304383</v>
       </c>
       <c r="G17">
-        <v>1.045403599044828</v>
+        <v>0.11015343</v>
       </c>
       <c r="H17">
-        <v>0.9997807826760502</v>
+        <v>0.0026898821</v>
       </c>
       <c r="I17">
-        <v>1.000915227205551</v>
+        <v>0.11015343</v>
       </c>
       <c r="J17">
-        <v>1.053402545331115</v>
+        <v>0.00074057934</v>
       </c>
       <c r="K17">
-        <v>0.976161171344973</v>
+        <v>0.00074057934</v>
       </c>
       <c r="L17">
-        <v>0.9765831776914727</v>
+        <v>0.0026898821</v>
       </c>
       <c r="M17">
-        <v>1.014992861511294</v>
+        <v>0.05642165605</v>
       </c>
       <c r="N17">
-        <v>1.014992861511294</v>
+        <v>0.05642165605</v>
       </c>
       <c r="O17">
-        <v>1.009922168566213</v>
+        <v>3.694124437366666</v>
       </c>
       <c r="P17">
-        <v>1.002048964789187</v>
+        <v>0.03786129714666667</v>
       </c>
       <c r="Q17">
-        <v>1.002048964789187</v>
+        <v>0.03786129714666667</v>
       </c>
       <c r="R17">
-        <v>0.9955770164281335</v>
+        <v>0.028581117695</v>
       </c>
       <c r="S17">
-        <v>0.9955770164281335</v>
+        <v>0.028581117695</v>
       </c>
       <c r="T17">
-        <v>1.008707750548999</v>
+        <v>1.847223028006667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.030282999110335</v>
+        <v>0.03354169067452054</v>
       </c>
       <c r="D18">
-        <v>1.236332324159667</v>
+        <v>5.319590195852331</v>
       </c>
       <c r="E18">
-        <v>1.078418074592538</v>
+        <v>1.774586404430135</v>
       </c>
       <c r="F18">
-        <v>1.030282999110335</v>
+        <v>0.1320891401032877</v>
       </c>
       <c r="G18">
-        <v>1.000878197936837</v>
+        <v>4.379276799786302</v>
       </c>
       <c r="H18">
-        <v>0.9844807803582197</v>
+        <v>1.77526128093863</v>
       </c>
       <c r="I18">
-        <v>0.9786604129320422</v>
+        <v>4.379276799786302</v>
       </c>
       <c r="J18">
-        <v>1.236332324159667</v>
+        <v>1.774586404430135</v>
       </c>
       <c r="K18">
-        <v>1.030282999110335</v>
+        <v>1.774586404430135</v>
       </c>
       <c r="L18">
-        <v>1.078418074592538</v>
+        <v>1.77526128093863</v>
       </c>
       <c r="M18">
-        <v>1.157375199376102</v>
+        <v>3.077269040362466</v>
       </c>
       <c r="N18">
-        <v>1.157375199376102</v>
+        <v>3.077269040362466</v>
       </c>
       <c r="O18">
-        <v>1.099743726370142</v>
+        <v>2.062693257133151</v>
       </c>
       <c r="P18">
-        <v>1.115011132620847</v>
+        <v>2.643041495051689</v>
       </c>
       <c r="Q18">
-        <v>1.115011132620847</v>
+        <v>2.643041495051689</v>
       </c>
       <c r="R18">
-        <v>1.093829099243218</v>
+        <v>2.4259277223963</v>
       </c>
       <c r="S18">
-        <v>1.093829099243218</v>
+        <v>2.4259277223963</v>
       </c>
       <c r="T18">
-        <v>1.051508798181606</v>
+        <v>2.235724251964201</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.096734407992369</v>
+        <v>3.406636220694736</v>
       </c>
       <c r="D19">
-        <v>0.7134201058205806</v>
+        <v>-0.001357140015789474</v>
       </c>
       <c r="E19">
-        <v>1.098285379294338</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="F19">
-        <v>1.096734407992369</v>
+        <v>0.005181390923157896</v>
       </c>
       <c r="G19">
-        <v>0.680165514670602</v>
+        <v>6.814890419515787</v>
       </c>
       <c r="H19">
-        <v>1.088807031191902</v>
+        <v>0.000953589023157895</v>
       </c>
       <c r="I19">
-        <v>0.9369052185306911</v>
+        <v>6.814890419515787</v>
       </c>
       <c r="J19">
-        <v>0.7134201058205806</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="K19">
-        <v>1.096734407992369</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="L19">
-        <v>1.098285379294338</v>
+        <v>0.000953589023157895</v>
       </c>
       <c r="M19">
-        <v>0.9058527425574592</v>
+        <v>3.407922004269472</v>
       </c>
       <c r="N19">
-        <v>0.9058527425574592</v>
+        <v>3.407922004269472</v>
       </c>
       <c r="O19">
-        <v>0.966837505435607</v>
+        <v>3.407493409744561</v>
       </c>
       <c r="P19">
-        <v>0.9694799643690959</v>
+        <v>3.940611567204735</v>
       </c>
       <c r="Q19">
-        <v>0.9694799643690958</v>
+        <v>3.940611567204735</v>
       </c>
       <c r="R19">
-        <v>1.001293575274914</v>
+        <v>4.206956348672366</v>
       </c>
       <c r="S19">
-        <v>1.001293575274914</v>
+        <v>4.206956348672366</v>
       </c>
       <c r="T19">
-        <v>0.9357196095834137</v>
+        <v>2.538715862202718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.03246660502157895</v>
+      </c>
+      <c r="D20">
+        <v>5.109614947677895</v>
+      </c>
+      <c r="E20">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="F20">
+        <v>0.1269133485031579</v>
+      </c>
+      <c r="G20">
+        <v>5.005963437736842</v>
+      </c>
+      <c r="H20">
+        <v>1.705068172310526</v>
+      </c>
+      <c r="I20">
+        <v>5.005963437736842</v>
+      </c>
+      <c r="J20">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="K20">
+        <v>2.504103374543155</v>
+      </c>
+      <c r="L20">
+        <v>1.705068172310526</v>
+      </c>
+      <c r="M20">
+        <v>3.355515805023684</v>
+      </c>
+      <c r="N20">
+        <v>3.355515805023684</v>
+      </c>
+      <c r="O20">
+        <v>2.247832738356316</v>
+      </c>
+      <c r="P20">
+        <v>3.071711661530175</v>
+      </c>
+      <c r="Q20">
+        <v>3.071711661530174</v>
+      </c>
+      <c r="R20">
+        <v>2.929809589783419</v>
+      </c>
+      <c r="S20">
+        <v>2.929809589783419</v>
+      </c>
+      <c r="T20">
+        <v>2.414021647632192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>2.225291216432352</v>
+      </c>
+      <c r="D21">
+        <v>-0.0001223677793042235</v>
+      </c>
+      <c r="E21">
+        <v>5.38980186805323E-05</v>
+      </c>
+      <c r="F21">
+        <v>0.002627192334961447</v>
+      </c>
+      <c r="G21">
+        <v>7.670671026192249</v>
+      </c>
+      <c r="H21">
+        <v>0.001994453787480644</v>
+      </c>
+      <c r="I21">
+        <v>7.670671026192249</v>
+      </c>
+      <c r="J21">
+        <v>5.38980186805323E-05</v>
+      </c>
+      <c r="K21">
+        <v>5.38980186805323E-05</v>
+      </c>
+      <c r="L21">
+        <v>0.001994453787480644</v>
+      </c>
+      <c r="M21">
+        <v>3.836332739989865</v>
+      </c>
+      <c r="N21">
+        <v>3.836332739989865</v>
+      </c>
+      <c r="O21">
+        <v>3.299318898804027</v>
+      </c>
+      <c r="P21">
+        <v>2.55757312599947</v>
+      </c>
+      <c r="Q21">
+        <v>2.55757312599947</v>
+      </c>
+      <c r="R21">
+        <v>1.918193319004272</v>
+      </c>
+      <c r="S21">
+        <v>1.918193319004272</v>
+      </c>
+      <c r="T21">
+        <v>1.650085903164403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.951167112277634</v>
+      </c>
+      <c r="D22">
+        <v>-0.0002503768792746595</v>
+      </c>
+      <c r="E22">
+        <v>0.2434722769406729</v>
+      </c>
+      <c r="F22">
+        <v>1.055946429035</v>
+      </c>
+      <c r="G22">
+        <v>0.01254785470251997</v>
+      </c>
+      <c r="H22">
+        <v>1.467031158321971</v>
+      </c>
+      <c r="I22">
+        <v>0.01254785470251997</v>
+      </c>
+      <c r="J22">
+        <v>0.2434722769406729</v>
+      </c>
+      <c r="K22">
+        <v>0.2434722769406729</v>
+      </c>
+      <c r="L22">
+        <v>1.467031158321971</v>
+      </c>
+      <c r="M22">
+        <v>0.7397895065122454</v>
+      </c>
+      <c r="N22">
+        <v>0.7397895065122454</v>
+      </c>
+      <c r="O22">
+        <v>1.143582041767375</v>
+      </c>
+      <c r="P22">
+        <v>0.5743504299883879</v>
+      </c>
+      <c r="Q22">
+        <v>0.5743504299883879</v>
+      </c>
+      <c r="R22">
+        <v>0.4916308917264592</v>
+      </c>
+      <c r="S22">
+        <v>0.4916308917264592</v>
+      </c>
+      <c r="T22">
+        <v>0.7883190757330872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7438671392546355</v>
+      </c>
+      <c r="D23">
+        <v>0.04493336651283013</v>
+      </c>
+      <c r="E23">
+        <v>0.04323703425380294</v>
+      </c>
+      <c r="F23">
+        <v>1.437118756671864</v>
+      </c>
+      <c r="G23">
+        <v>0.002303868019616903</v>
+      </c>
+      <c r="H23">
+        <v>1.478040375546571</v>
+      </c>
+      <c r="I23">
+        <v>0.002303868019616903</v>
+      </c>
+      <c r="J23">
+        <v>0.04323703425380294</v>
+      </c>
+      <c r="K23">
+        <v>0.04323703425380294</v>
+      </c>
+      <c r="L23">
+        <v>1.478040375546571</v>
+      </c>
+      <c r="M23">
+        <v>0.7401721217830941</v>
+      </c>
+      <c r="N23">
+        <v>0.7401721217830941</v>
+      </c>
+      <c r="O23">
+        <v>0.7414037942736079</v>
+      </c>
+      <c r="P23">
+        <v>0.507860425939997</v>
+      </c>
+      <c r="Q23">
+        <v>0.5078604259399971</v>
+      </c>
+      <c r="R23">
+        <v>0.3917045780184485</v>
+      </c>
+      <c r="S23">
+        <v>0.3917045780184485</v>
+      </c>
+      <c r="T23">
+        <v>0.6249167567098869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.253314960072905</v>
+      </c>
+      <c r="D24">
+        <v>2.989604547419959</v>
+      </c>
+      <c r="E24">
+        <v>2.195642819680748</v>
+      </c>
+      <c r="F24">
+        <v>0.4768826445781498</v>
+      </c>
+      <c r="G24">
+        <v>2.359723982081764</v>
+      </c>
+      <c r="H24">
+        <v>0.06129398204738225</v>
+      </c>
+      <c r="I24">
+        <v>2.359723982081764</v>
+      </c>
+      <c r="J24">
+        <v>2.195642819680748</v>
+      </c>
+      <c r="K24">
+        <v>2.195642819680748</v>
+      </c>
+      <c r="L24">
+        <v>0.06129398204738225</v>
+      </c>
+      <c r="M24">
+        <v>1.210508982064573</v>
+      </c>
+      <c r="N24">
+        <v>1.210508982064573</v>
+      </c>
+      <c r="O24">
+        <v>1.224777641400684</v>
+      </c>
+      <c r="P24">
+        <v>1.538886927936632</v>
+      </c>
+      <c r="Q24">
+        <v>1.538886927936632</v>
+      </c>
+      <c r="R24">
+        <v>1.703075900872661</v>
+      </c>
+      <c r="S24">
+        <v>1.703075900872661</v>
+      </c>
+      <c r="T24">
+        <v>1.556077155980151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.000387433700735926</v>
+      </c>
+      <c r="D25">
+        <v>1.089884389547288</v>
+      </c>
+      <c r="E25">
+        <v>0.0009851134221014234</v>
+      </c>
+      <c r="F25">
+        <v>0.3961782963993181</v>
+      </c>
+      <c r="G25">
+        <v>-3.824127051843169E-05</v>
+      </c>
+      <c r="H25">
+        <v>1.309209376322907</v>
+      </c>
+      <c r="I25">
+        <v>-3.824127051843169E-05</v>
+      </c>
+      <c r="J25">
+        <v>0.0009851134221014234</v>
+      </c>
+      <c r="K25">
+        <v>0.0009851134221014234</v>
+      </c>
+      <c r="L25">
+        <v>1.309209376322907</v>
+      </c>
+      <c r="M25">
+        <v>0.6545855675261941</v>
+      </c>
+      <c r="N25">
+        <v>0.6545855675261941</v>
+      </c>
+      <c r="O25">
+        <v>0.4365195229177081</v>
+      </c>
+      <c r="P25">
+        <v>0.4367187494914966</v>
+      </c>
+      <c r="Q25">
+        <v>0.4367187494914966</v>
+      </c>
+      <c r="R25">
+        <v>0.3277853404741478</v>
+      </c>
+      <c r="S25">
+        <v>0.3277853404741478</v>
+      </c>
+      <c r="T25">
+        <v>0.4661010613536385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.002803107489512104</v>
+      </c>
+      <c r="D26">
+        <v>0.002043168524354677</v>
+      </c>
+      <c r="E26">
+        <v>0.6404703130824716</v>
+      </c>
+      <c r="F26">
+        <v>2.268916713792477</v>
+      </c>
+      <c r="G26">
+        <v>-0.0002872047814168298</v>
+      </c>
+      <c r="H26">
+        <v>1.249658272177324</v>
+      </c>
+      <c r="I26">
+        <v>-0.0002872047814168298</v>
+      </c>
+      <c r="J26">
+        <v>0.6404703130824716</v>
+      </c>
+      <c r="K26">
+        <v>0.6404703130824716</v>
+      </c>
+      <c r="L26">
+        <v>1.249658272177324</v>
+      </c>
+      <c r="M26">
+        <v>0.6246855336979537</v>
+      </c>
+      <c r="N26">
+        <v>0.6246855336979537</v>
+      </c>
+      <c r="O26">
+        <v>0.4173913916284731</v>
+      </c>
+      <c r="P26">
+        <v>0.6299471268261263</v>
+      </c>
+      <c r="Q26">
+        <v>0.6299471268261263</v>
+      </c>
+      <c r="R26">
+        <v>0.6325779233902127</v>
+      </c>
+      <c r="S26">
+        <v>0.6325779233902127</v>
+      </c>
+      <c r="T26">
+        <v>0.6939340617141205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.712282394985681</v>
+      </c>
+      <c r="D27">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="E27">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="F27">
+        <v>0.2677660244023903</v>
+      </c>
+      <c r="G27">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="H27">
+        <v>1.749504689976261</v>
+      </c>
+      <c r="I27">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="J27">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="K27">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="L27">
+        <v>1.749504689976261</v>
+      </c>
+      <c r="M27">
+        <v>0.9067251614737779</v>
+      </c>
+      <c r="N27">
+        <v>0.9067251614737779</v>
+      </c>
+      <c r="O27">
+        <v>1.175244239311079</v>
+      </c>
+      <c r="P27">
+        <v>1.216966763175434</v>
+      </c>
+      <c r="Q27">
+        <v>1.216966763175434</v>
+      </c>
+      <c r="R27">
+        <v>1.372087564026262</v>
+      </c>
+      <c r="S27">
+        <v>1.372087564026262</v>
+      </c>
+      <c r="T27">
+        <v>1.4064840459268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.2626153361101904</v>
+      </c>
+      <c r="D28">
+        <v>2.600540733808507</v>
+      </c>
+      <c r="E28">
+        <v>0.9306939815662707</v>
+      </c>
+      <c r="F28">
+        <v>0.4666206878602913</v>
+      </c>
+      <c r="G28">
+        <v>1.057904172687598</v>
+      </c>
+      <c r="H28">
+        <v>1.061255963677574</v>
+      </c>
+      <c r="I28">
+        <v>1.057904172687598</v>
+      </c>
+      <c r="J28">
+        <v>0.9306939815662707</v>
+      </c>
+      <c r="K28">
+        <v>0.9306939815662707</v>
+      </c>
+      <c r="L28">
+        <v>1.061255963677574</v>
+      </c>
+      <c r="M28">
+        <v>1.059580068182586</v>
+      </c>
+      <c r="N28">
+        <v>1.059580068182586</v>
+      </c>
+      <c r="O28">
+        <v>0.7939251574917874</v>
+      </c>
+      <c r="P28">
+        <v>1.016618039310481</v>
+      </c>
+      <c r="Q28">
+        <v>1.016618039310481</v>
+      </c>
+      <c r="R28">
+        <v>0.9951370248744282</v>
+      </c>
+      <c r="S28">
+        <v>0.9951370248744282</v>
+      </c>
+      <c r="T28">
+        <v>1.063271812618405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.431723241018891</v>
+      </c>
+      <c r="D29">
+        <v>5.721186622961275</v>
+      </c>
+      <c r="E29">
+        <v>1.791454830739619</v>
+      </c>
+      <c r="F29">
+        <v>0.04627455203015916</v>
+      </c>
+      <c r="G29">
+        <v>2.375468013095546</v>
+      </c>
+      <c r="H29">
+        <v>0.05634646698588139</v>
+      </c>
+      <c r="I29">
+        <v>2.375468013095546</v>
+      </c>
+      <c r="J29">
+        <v>1.791454830739619</v>
+      </c>
+      <c r="K29">
+        <v>1.791454830739619</v>
+      </c>
+      <c r="L29">
+        <v>0.05634646698588139</v>
+      </c>
+      <c r="M29">
+        <v>1.215907240040714</v>
+      </c>
+      <c r="N29">
+        <v>1.215907240040714</v>
+      </c>
+      <c r="O29">
+        <v>0.954512573700106</v>
+      </c>
+      <c r="P29">
+        <v>1.407756436940349</v>
+      </c>
+      <c r="Q29">
+        <v>1.407756436940349</v>
+      </c>
+      <c r="R29">
+        <v>1.503681035390166</v>
+      </c>
+      <c r="S29">
+        <v>1.503681035390166</v>
+      </c>
+      <c r="T29">
+        <v>1.737075621138562</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9198465848506756</v>
+        <v>0.8632210833159332</v>
       </c>
       <c r="D4">
-        <v>0.8633979588803194</v>
+        <v>0.9019600965337778</v>
       </c>
       <c r="E4">
-        <v>1.943934907918076</v>
+        <v>2.471025170315269</v>
       </c>
       <c r="F4">
-        <v>0.9396874303973731</v>
+        <v>0.9564280144575766</v>
       </c>
       <c r="G4">
-        <v>0.9468238170950675</v>
+        <v>0.7330150442468045</v>
       </c>
       <c r="H4">
-        <v>0.8723251767780055</v>
+        <v>0.8960776325880143</v>
       </c>
       <c r="I4">
-        <v>0.9468238170950675</v>
+        <v>0.7330150442468045</v>
       </c>
       <c r="J4">
-        <v>1.943934907918076</v>
+        <v>2.471025170315269</v>
       </c>
       <c r="K4">
-        <v>1.943934907918076</v>
+        <v>2.471025170315269</v>
       </c>
       <c r="L4">
-        <v>0.8723251767780055</v>
+        <v>0.8960776325880143</v>
       </c>
       <c r="M4">
-        <v>0.9095744969365365</v>
+        <v>0.8145463384174094</v>
       </c>
       <c r="N4">
-        <v>0.9095744969365365</v>
+        <v>0.8145463384174094</v>
       </c>
       <c r="O4">
-        <v>0.9129985262412496</v>
+        <v>0.8307712533835839</v>
       </c>
       <c r="P4">
-        <v>1.25436130059705</v>
+        <v>1.366705949050029</v>
       </c>
       <c r="Q4">
-        <v>1.25436130059705</v>
+        <v>1.366705949050029</v>
       </c>
       <c r="R4">
-        <v>1.426754702427306</v>
+        <v>1.642785754366339</v>
       </c>
       <c r="S4">
-        <v>1.426754702427306</v>
+        <v>1.642785754366339</v>
       </c>
       <c r="T4">
-        <v>1.081002645986586</v>
+        <v>1.136954506909563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.80971459837995</v>
+        <v>0.03550627442927944</v>
       </c>
       <c r="D5">
-        <v>1.026900162382976</v>
+        <v>5.643504293258746</v>
       </c>
       <c r="E5">
-        <v>3.128132407286034</v>
+        <v>0.7289060913436229</v>
       </c>
       <c r="F5">
-        <v>0.8996249391329799</v>
+        <v>0.1392764722795065</v>
       </c>
       <c r="G5">
-        <v>0.9241541760784203</v>
+        <v>4.032149763057164</v>
       </c>
       <c r="H5">
-        <v>0.8995547410717861</v>
+        <v>1.886564183279253</v>
       </c>
       <c r="I5">
-        <v>0.9241541760784203</v>
+        <v>4.032149763057164</v>
       </c>
       <c r="J5">
-        <v>3.128132407286034</v>
+        <v>0.7289060913436229</v>
       </c>
       <c r="K5">
-        <v>3.128132407286034</v>
+        <v>0.7289060913436229</v>
       </c>
       <c r="L5">
-        <v>0.8995547410717861</v>
+        <v>1.886564183279253</v>
       </c>
       <c r="M5">
-        <v>0.9118544585751032</v>
+        <v>2.959356973168208</v>
       </c>
       <c r="N5">
-        <v>0.9118544585751032</v>
+        <v>2.959356973168208</v>
       </c>
       <c r="O5">
-        <v>0.8778078385100522</v>
+        <v>1.984740073588565</v>
       </c>
       <c r="P5">
-        <v>1.65061377481208</v>
+        <v>2.215873345893346</v>
       </c>
       <c r="Q5">
-        <v>1.65061377481208</v>
+        <v>2.215873345893346</v>
       </c>
       <c r="R5">
-        <v>2.019993432930569</v>
+        <v>1.844131532255915</v>
       </c>
       <c r="S5">
-        <v>2.019993432930569</v>
+        <v>1.844131532255915</v>
       </c>
       <c r="T5">
-        <v>1.281346837388691</v>
+        <v>2.077651179607928</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4369155123294761</v>
+        <v>0.9198465848506756</v>
       </c>
       <c r="D6">
-        <v>0.4556216075653894</v>
+        <v>0.8633979588803194</v>
       </c>
       <c r="E6">
-        <v>16.38501025765853</v>
+        <v>1.943934907918076</v>
       </c>
       <c r="F6">
-        <v>0.4817020843687536</v>
+        <v>0.9396874303973731</v>
       </c>
       <c r="G6">
-        <v>0.4051617344198129</v>
+        <v>0.9468238170950675</v>
       </c>
       <c r="H6">
-        <v>0.4396228909860921</v>
+        <v>0.8723251767780055</v>
       </c>
       <c r="I6">
-        <v>0.4051617344198129</v>
+        <v>0.9468238170950675</v>
       </c>
       <c r="J6">
-        <v>16.38501025765853</v>
+        <v>1.943934907918076</v>
       </c>
       <c r="K6">
-        <v>16.38501025765853</v>
+        <v>1.943934907918076</v>
       </c>
       <c r="L6">
-        <v>0.4396228909860921</v>
+        <v>0.8723251767780055</v>
       </c>
       <c r="M6">
-        <v>0.4223923127029525</v>
+        <v>0.9095744969365365</v>
       </c>
       <c r="N6">
-        <v>0.4223923127029525</v>
+        <v>0.9095744969365365</v>
       </c>
       <c r="O6">
-        <v>0.4272333792451271</v>
+        <v>0.9129985262412496</v>
       </c>
       <c r="P6">
-        <v>5.743264961021477</v>
+        <v>1.25436130059705</v>
       </c>
       <c r="Q6">
-        <v>5.743264961021478</v>
+        <v>1.25436130059705</v>
       </c>
       <c r="R6">
-        <v>8.403701285180741</v>
+        <v>1.426754702427306</v>
       </c>
       <c r="S6">
-        <v>8.403701285180741</v>
+        <v>1.426754702427306</v>
       </c>
       <c r="T6">
-        <v>3.100672347888009</v>
+        <v>1.081002645986586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9536199835091309</v>
+        <v>0.80971459837995</v>
       </c>
       <c r="D7">
-        <v>1.234621176820528</v>
+        <v>1.026900162382976</v>
       </c>
       <c r="E7">
-        <v>1.047809534234718</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="F7">
-        <v>0.9609301307710889</v>
+        <v>0.8996249391329799</v>
       </c>
       <c r="G7">
-        <v>1.107347411868583</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="H7">
-        <v>1.031564002918908</v>
+        <v>0.8995547410717861</v>
       </c>
       <c r="I7">
-        <v>1.107347411868583</v>
+        <v>0.9241541760784203</v>
       </c>
       <c r="J7">
-        <v>1.047809534234718</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="K7">
-        <v>1.047809534234718</v>
+        <v>3.128132407286034</v>
       </c>
       <c r="L7">
-        <v>1.031564002918908</v>
+        <v>0.8995547410717861</v>
       </c>
       <c r="M7">
-        <v>1.069455707393746</v>
+        <v>0.9118544585751032</v>
       </c>
       <c r="N7">
-        <v>1.069455707393746</v>
+        <v>0.9118544585751032</v>
       </c>
       <c r="O7">
-        <v>1.030843799432207</v>
+        <v>0.8778078385100522</v>
       </c>
       <c r="P7">
-        <v>1.062240316340737</v>
+        <v>1.65061377481208</v>
       </c>
       <c r="Q7">
-        <v>1.062240316340737</v>
+        <v>1.65061377481208</v>
       </c>
       <c r="R7">
-        <v>1.058632620814232</v>
+        <v>2.019993432930569</v>
       </c>
       <c r="S7">
-        <v>1.058632620814232</v>
+        <v>2.019993432930569</v>
       </c>
       <c r="T7">
-        <v>1.055982040020493</v>
+        <v>1.281346837388691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9997807826760507</v>
+        <v>0.4369155123294761</v>
       </c>
       <c r="D8">
-        <v>1.04540359904483</v>
+        <v>0.4556216075653894</v>
       </c>
       <c r="E8">
-        <v>0.9761611713449719</v>
+        <v>16.38501025765853</v>
       </c>
       <c r="F8">
-        <v>1.000915227205551</v>
+        <v>0.4817020843687536</v>
       </c>
       <c r="G8">
-        <v>1.053402545331116</v>
+        <v>0.4051617344198129</v>
       </c>
       <c r="H8">
-        <v>0.9765831776914726</v>
+        <v>0.4396228909860921</v>
       </c>
       <c r="I8">
-        <v>1.053402545331116</v>
+        <v>0.4051617344198129</v>
       </c>
       <c r="J8">
-        <v>0.9761611713449719</v>
+        <v>16.38501025765853</v>
       </c>
       <c r="K8">
-        <v>0.9761611713449719</v>
+        <v>16.38501025765853</v>
       </c>
       <c r="L8">
-        <v>0.9765831776914726</v>
+        <v>0.4396228909860921</v>
       </c>
       <c r="M8">
-        <v>1.014992861511294</v>
+        <v>0.4223923127029525</v>
       </c>
       <c r="N8">
-        <v>1.014992861511294</v>
+        <v>0.4223923127029525</v>
       </c>
       <c r="O8">
-        <v>1.009922168566213</v>
+        <v>0.4272333792451271</v>
       </c>
       <c r="P8">
-        <v>1.002048964789187</v>
+        <v>5.743264961021477</v>
       </c>
       <c r="Q8">
-        <v>1.002048964789187</v>
+        <v>5.743264961021478</v>
       </c>
       <c r="R8">
-        <v>0.9955770164281329</v>
+        <v>8.403701285180741</v>
       </c>
       <c r="S8">
-        <v>0.9955770164281329</v>
+        <v>8.403701285180741</v>
       </c>
       <c r="T8">
-        <v>1.008707750548999</v>
+        <v>3.100672347888009</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9040874250574215</v>
+        <v>0.9536199835091309</v>
       </c>
       <c r="D9">
-        <v>1.427852674521916</v>
+        <v>1.234621176820528</v>
       </c>
       <c r="E9">
-        <v>1.103969556861851</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="F9">
-        <v>0.9586205680769918</v>
+        <v>0.9609301307710889</v>
       </c>
       <c r="G9">
-        <v>1.204465782221185</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="H9">
-        <v>1.060006336512867</v>
+        <v>1.031564002918908</v>
       </c>
       <c r="I9">
-        <v>1.204465782221185</v>
+        <v>1.107347411868583</v>
       </c>
       <c r="J9">
-        <v>1.103969556861851</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="K9">
-        <v>1.103969556861851</v>
+        <v>1.047809534234718</v>
       </c>
       <c r="L9">
-        <v>1.060006336512867</v>
+        <v>1.031564002918908</v>
       </c>
       <c r="M9">
-        <v>1.132236059367026</v>
+        <v>1.069455707393746</v>
       </c>
       <c r="N9">
-        <v>1.132236059367026</v>
+        <v>1.069455707393746</v>
       </c>
       <c r="O9">
-        <v>1.056186514597158</v>
+        <v>1.030843799432207</v>
       </c>
       <c r="P9">
-        <v>1.122813891865301</v>
+        <v>1.062240316340737</v>
       </c>
       <c r="Q9">
-        <v>1.122813891865301</v>
+        <v>1.062240316340737</v>
       </c>
       <c r="R9">
-        <v>1.118102808114439</v>
+        <v>1.058632620814232</v>
       </c>
       <c r="S9">
-        <v>1.118102808114439</v>
+        <v>1.058632620814232</v>
       </c>
       <c r="T9">
-        <v>1.109833723875372</v>
+        <v>1.055982040020493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4177373726765574</v>
+        <v>0.9997807826760507</v>
       </c>
       <c r="D10">
-        <v>0.4150202898035568</v>
+        <v>1.04540359904483</v>
       </c>
       <c r="E10">
-        <v>16.72606622617658</v>
+        <v>0.9761611713449719</v>
       </c>
       <c r="F10">
-        <v>0.4595515953315276</v>
+        <v>1.000915227205551</v>
       </c>
       <c r="G10">
-        <v>0.4540449105038262</v>
+        <v>1.053402545331116</v>
       </c>
       <c r="H10">
-        <v>0.4067664264598636</v>
+        <v>0.9765831776914726</v>
       </c>
       <c r="I10">
-        <v>0.4540449105038262</v>
+        <v>1.053402545331116</v>
       </c>
       <c r="J10">
-        <v>16.72606622617658</v>
+        <v>0.9761611713449719</v>
       </c>
       <c r="K10">
-        <v>16.72606622617658</v>
+        <v>0.9761611713449719</v>
       </c>
       <c r="L10">
-        <v>0.4067664264598636</v>
+        <v>0.9765831776914726</v>
       </c>
       <c r="M10">
-        <v>0.4304056684818449</v>
+        <v>1.014992861511294</v>
       </c>
       <c r="N10">
-        <v>0.4304056684818449</v>
+        <v>1.014992861511294</v>
       </c>
       <c r="O10">
-        <v>0.4261829032134157</v>
+        <v>1.009922168566213</v>
       </c>
       <c r="P10">
-        <v>5.862292521046758</v>
+        <v>1.002048964789187</v>
       </c>
       <c r="Q10">
-        <v>5.862292521046758</v>
+        <v>1.002048964789187</v>
       </c>
       <c r="R10">
-        <v>8.578235947329215</v>
+        <v>0.9955770164281329</v>
       </c>
       <c r="S10">
-        <v>8.578235947329215</v>
+        <v>0.9955770164281329</v>
       </c>
       <c r="T10">
-        <v>3.14653113682532</v>
+        <v>1.008707750548999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.4826953861439423</v>
+        <v>0.9040874250574215</v>
       </c>
       <c r="D11">
-        <v>1.242616079988111</v>
+        <v>1.427852674521916</v>
       </c>
       <c r="E11">
-        <v>2.025552846997402</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="F11">
-        <v>1.186638856737762</v>
+        <v>0.9586205680769918</v>
       </c>
       <c r="G11">
-        <v>0.3071294600657896</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="H11">
-        <v>1.078892258265857</v>
+        <v>1.060006336512867</v>
       </c>
       <c r="I11">
-        <v>0.3071294600657896</v>
+        <v>1.204465782221185</v>
       </c>
       <c r="J11">
-        <v>2.025552846997402</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="K11">
-        <v>2.025552846997402</v>
+        <v>1.103969556861851</v>
       </c>
       <c r="L11">
-        <v>1.078892258265857</v>
+        <v>1.060006336512867</v>
       </c>
       <c r="M11">
-        <v>0.6930108591658232</v>
+        <v>1.132236059367026</v>
       </c>
       <c r="N11">
-        <v>0.6930108591658232</v>
+        <v>1.132236059367026</v>
       </c>
       <c r="O11">
-        <v>0.6229057014918629</v>
+        <v>1.056186514597158</v>
       </c>
       <c r="P11">
-        <v>1.13719152177635</v>
+        <v>1.122813891865301</v>
       </c>
       <c r="Q11">
-        <v>1.13719152177635</v>
+        <v>1.122813891865301</v>
       </c>
       <c r="R11">
-        <v>1.359281853081613</v>
+        <v>1.118102808114439</v>
       </c>
       <c r="S11">
-        <v>1.359281853081613</v>
+        <v>1.118102808114439</v>
       </c>
       <c r="T11">
-        <v>1.053920814699811</v>
+        <v>1.109833723875372</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7881929828473356</v>
+        <v>0.4177373726765574</v>
       </c>
       <c r="D12">
-        <v>0.8605387539555995</v>
+        <v>0.4150202898035568</v>
       </c>
       <c r="E12">
-        <v>4.184005176183452</v>
+        <v>16.72606622617658</v>
       </c>
       <c r="F12">
-        <v>0.8651942401567628</v>
+        <v>0.4595515953315276</v>
       </c>
       <c r="G12">
-        <v>0.8235776571694822</v>
+        <v>0.4540449105038262</v>
       </c>
       <c r="H12">
-        <v>0.793602647968344</v>
+        <v>0.4067664264598636</v>
       </c>
       <c r="I12">
-        <v>0.8235776571694822</v>
+        <v>0.4540449105038262</v>
       </c>
       <c r="J12">
-        <v>4.184005176183452</v>
+        <v>16.72606622617658</v>
       </c>
       <c r="K12">
-        <v>4.184005176183452</v>
+        <v>16.72606622617658</v>
       </c>
       <c r="L12">
-        <v>0.793602647968344</v>
+        <v>0.4067664264598636</v>
       </c>
       <c r="M12">
-        <v>0.8085901525689131</v>
+        <v>0.4304056684818449</v>
       </c>
       <c r="N12">
-        <v>0.8085901525689131</v>
+        <v>0.4304056684818449</v>
       </c>
       <c r="O12">
-        <v>0.8017910959950539</v>
+        <v>0.4261829032134157</v>
       </c>
       <c r="P12">
-        <v>1.933728493773759</v>
+        <v>5.862292521046758</v>
       </c>
       <c r="Q12">
-        <v>1.933728493773759</v>
+        <v>5.862292521046758</v>
       </c>
       <c r="R12">
-        <v>2.496297664376183</v>
+        <v>8.578235947329215</v>
       </c>
       <c r="S12">
-        <v>2.496297664376183</v>
+        <v>8.578235947329215</v>
       </c>
       <c r="T12">
-        <v>1.385851909713496</v>
+        <v>3.14653113682532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.108121203434596</v>
+        <v>0.4826953861439423</v>
       </c>
       <c r="D13">
-        <v>1.017281727381781</v>
+        <v>1.242616079988111</v>
       </c>
       <c r="E13">
-        <v>1.142096761183624</v>
+        <v>2.025552846997402</v>
       </c>
       <c r="F13">
-        <v>0.9447102995357209</v>
+        <v>1.186638856737762</v>
       </c>
       <c r="G13">
-        <v>1.356421852716105</v>
+        <v>0.3071294600657896</v>
       </c>
       <c r="H13">
-        <v>0.9473410237665644</v>
+        <v>1.078892258265857</v>
       </c>
       <c r="I13">
-        <v>1.356421852716105</v>
+        <v>0.3071294600657896</v>
       </c>
       <c r="J13">
-        <v>1.142096761183624</v>
+        <v>2.025552846997402</v>
       </c>
       <c r="K13">
-        <v>1.142096761183624</v>
+        <v>2.025552846997402</v>
       </c>
       <c r="L13">
-        <v>0.9473410237665644</v>
+        <v>1.078892258265857</v>
       </c>
       <c r="M13">
-        <v>1.151881438241335</v>
+        <v>0.6930108591658232</v>
       </c>
       <c r="N13">
-        <v>1.151881438241335</v>
+        <v>0.6930108591658232</v>
       </c>
       <c r="O13">
-        <v>1.137294693305755</v>
+        <v>0.6229057014918629</v>
       </c>
       <c r="P13">
-        <v>1.148619879222098</v>
+        <v>1.13719152177635</v>
       </c>
       <c r="Q13">
-        <v>1.148619879222098</v>
+        <v>1.13719152177635</v>
       </c>
       <c r="R13">
-        <v>1.14698909971248</v>
+        <v>1.359281853081613</v>
       </c>
       <c r="S13">
-        <v>1.14698909971248</v>
+        <v>1.359281853081613</v>
       </c>
       <c r="T13">
-        <v>1.085995478003065</v>
+        <v>1.053920814699811</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.002542095699999998</v>
+        <v>0.7881929828473356</v>
       </c>
       <c r="D14">
-        <v>-0.002792170900000001</v>
+        <v>0.8605387539555995</v>
       </c>
       <c r="E14">
-        <v>30.38197599999996</v>
+        <v>4.184005176183452</v>
       </c>
       <c r="F14">
-        <v>0.003743037199999997</v>
+        <v>0.8651942401567628</v>
       </c>
       <c r="G14">
-        <v>0.003096941800000001</v>
+        <v>0.8235776571694822</v>
       </c>
       <c r="H14">
-        <v>-0.0012295708</v>
+        <v>0.793602647968344</v>
       </c>
       <c r="I14">
-        <v>0.003096941800000001</v>
+        <v>0.8235776571694822</v>
       </c>
       <c r="J14">
-        <v>30.38197599999996</v>
+        <v>4.184005176183452</v>
       </c>
       <c r="K14">
-        <v>30.38197599999996</v>
+        <v>4.184005176183452</v>
       </c>
       <c r="L14">
-        <v>-0.0012295708</v>
+        <v>0.793602647968344</v>
       </c>
       <c r="M14">
-        <v>0.0009336855000000008</v>
+        <v>0.8085901525689131</v>
       </c>
       <c r="N14">
-        <v>0.0009336855000000008</v>
+        <v>0.8085901525689131</v>
       </c>
       <c r="O14">
-        <v>0.001469822233333333</v>
+        <v>0.8017910959950539</v>
       </c>
       <c r="P14">
-        <v>10.12794779033332</v>
+        <v>1.933728493773759</v>
       </c>
       <c r="Q14">
-        <v>10.12794779033332</v>
+        <v>1.933728493773759</v>
       </c>
       <c r="R14">
-        <v>15.19145484274998</v>
+        <v>2.496297664376183</v>
       </c>
       <c r="S14">
-        <v>15.19145484274998</v>
+        <v>2.496297664376183</v>
       </c>
       <c r="T14">
-        <v>5.064556055499993</v>
+        <v>1.385851909713496</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.013834371</v>
+        <v>1.108121203434596</v>
       </c>
       <c r="D15">
-        <v>0.0062360681</v>
+        <v>1.017281727381781</v>
       </c>
       <c r="E15">
-        <v>0.0030969418</v>
+        <v>1.142096761183624</v>
       </c>
       <c r="F15">
-        <v>-0.0045788157</v>
+        <v>0.9447102995357209</v>
       </c>
       <c r="G15">
-        <v>60.759821</v>
+        <v>1.356421852716105</v>
       </c>
       <c r="H15">
-        <v>-0.0064332714</v>
+        <v>0.9473410237665644</v>
       </c>
       <c r="I15">
-        <v>60.759821</v>
+        <v>1.356421852716105</v>
       </c>
       <c r="J15">
-        <v>0.0030969418</v>
+        <v>1.142096761183624</v>
       </c>
       <c r="K15">
-        <v>0.0030969418</v>
+        <v>1.142096761183624</v>
       </c>
       <c r="L15">
-        <v>-0.0064332714</v>
+        <v>0.9473410237665644</v>
       </c>
       <c r="M15">
-        <v>30.3766938643</v>
+        <v>1.151881438241335</v>
       </c>
       <c r="N15">
-        <v>30.3766938643</v>
+        <v>1.151881438241335</v>
       </c>
       <c r="O15">
-        <v>20.25574069986667</v>
+        <v>1.137294693305755</v>
       </c>
       <c r="P15">
-        <v>20.2521615568</v>
+        <v>1.148619879222098</v>
       </c>
       <c r="Q15">
-        <v>20.2521615568</v>
+        <v>1.148619879222098</v>
       </c>
       <c r="R15">
-        <v>15.18989540305</v>
+        <v>1.14698909971248</v>
       </c>
       <c r="S15">
-        <v>15.18989540305</v>
+        <v>1.14698909971248</v>
       </c>
       <c r="T15">
-        <v>10.12866271563333</v>
+        <v>1.085995478003065</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0025420957</v>
+        <v>0.002542095699999998</v>
       </c>
       <c r="D16">
-        <v>-0.0027921709</v>
+        <v>-0.002792170900000001</v>
       </c>
       <c r="E16">
-        <v>30.381976</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="F16">
-        <v>0.0037430372</v>
+        <v>0.003743037199999997</v>
       </c>
       <c r="G16">
-        <v>0.0030969418</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="H16">
         <v>-0.0012295708</v>
       </c>
       <c r="I16">
-        <v>0.0030969418</v>
+        <v>0.003096941800000001</v>
       </c>
       <c r="J16">
-        <v>30.381976</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="K16">
-        <v>30.381976</v>
+        <v>30.38197599999996</v>
       </c>
       <c r="L16">
         <v>-0.0012295708</v>
       </c>
       <c r="M16">
-        <v>0.0009336855</v>
+        <v>0.0009336855000000008</v>
       </c>
       <c r="N16">
-        <v>0.0009336855</v>
+        <v>0.0009336855000000008</v>
       </c>
       <c r="O16">
         <v>0.001469822233333333</v>
       </c>
       <c r="P16">
-        <v>10.12794779033333</v>
+        <v>10.12794779033332</v>
       </c>
       <c r="Q16">
-        <v>10.12794779033333</v>
+        <v>10.12794779033332</v>
       </c>
       <c r="R16">
-        <v>15.19145484275</v>
+        <v>15.19145484274998</v>
       </c>
       <c r="S16">
-        <v>15.19145484275</v>
+        <v>15.19145484274998</v>
       </c>
       <c r="T16">
-        <v>5.0645560555</v>
+        <v>5.064556055499993</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>10.96953</v>
+        <v>0.013834371</v>
       </c>
       <c r="D17">
-        <v>-0.0011061617</v>
+        <v>0.0062360681</v>
       </c>
       <c r="E17">
-        <v>0.00074057934</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F17">
-        <v>0.0013304383</v>
+        <v>-0.0045788157</v>
       </c>
       <c r="G17">
-        <v>0.11015343</v>
+        <v>60.759821</v>
       </c>
       <c r="H17">
-        <v>0.0026898821</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="I17">
-        <v>0.11015343</v>
+        <v>60.759821</v>
       </c>
       <c r="J17">
-        <v>0.00074057934</v>
+        <v>0.0030969418</v>
       </c>
       <c r="K17">
-        <v>0.00074057934</v>
+        <v>0.0030969418</v>
       </c>
       <c r="L17">
-        <v>0.0026898821</v>
+        <v>-0.0064332714</v>
       </c>
       <c r="M17">
-        <v>0.05642165605</v>
+        <v>30.3766938643</v>
       </c>
       <c r="N17">
-        <v>0.05642165605</v>
+        <v>30.3766938643</v>
       </c>
       <c r="O17">
-        <v>3.694124437366666</v>
+        <v>20.25574069986667</v>
       </c>
       <c r="P17">
-        <v>0.03786129714666667</v>
+        <v>20.2521615568</v>
       </c>
       <c r="Q17">
-        <v>0.03786129714666667</v>
+        <v>20.2521615568</v>
       </c>
       <c r="R17">
-        <v>0.028581117695</v>
+        <v>15.18989540305</v>
       </c>
       <c r="S17">
-        <v>0.028581117695</v>
+        <v>15.18989540305</v>
       </c>
       <c r="T17">
-        <v>1.847223028006667</v>
+        <v>10.12866271563333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.03354169067452054</v>
+        <v>0.0025420957</v>
       </c>
       <c r="D18">
-        <v>5.319590195852331</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="E18">
-        <v>1.774586404430135</v>
+        <v>30.381976</v>
       </c>
       <c r="F18">
-        <v>0.1320891401032877</v>
+        <v>0.0037430372</v>
       </c>
       <c r="G18">
-        <v>4.379276799786302</v>
+        <v>0.0030969418</v>
       </c>
       <c r="H18">
-        <v>1.77526128093863</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="I18">
-        <v>4.379276799786302</v>
+        <v>0.0030969418</v>
       </c>
       <c r="J18">
-        <v>1.774586404430135</v>
+        <v>30.381976</v>
       </c>
       <c r="K18">
-        <v>1.774586404430135</v>
+        <v>30.381976</v>
       </c>
       <c r="L18">
-        <v>1.77526128093863</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M18">
-        <v>3.077269040362466</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N18">
-        <v>3.077269040362466</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O18">
-        <v>2.062693257133151</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P18">
-        <v>2.643041495051689</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q18">
-        <v>2.643041495051689</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R18">
-        <v>2.4259277223963</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S18">
-        <v>2.4259277223963</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T18">
-        <v>2.235724251964201</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.406636220694736</v>
+        <v>10.96953</v>
       </c>
       <c r="D19">
-        <v>-0.001357140015789474</v>
+        <v>-0.0011061617</v>
       </c>
       <c r="E19">
-        <v>5.005990693075261</v>
+        <v>0.00074057934</v>
       </c>
       <c r="F19">
-        <v>0.005181390923157896</v>
+        <v>0.0013304383</v>
       </c>
       <c r="G19">
-        <v>6.814890419515787</v>
+        <v>0.11015343</v>
       </c>
       <c r="H19">
-        <v>0.000953589023157895</v>
+        <v>0.0026898821</v>
       </c>
       <c r="I19">
-        <v>6.814890419515787</v>
+        <v>0.11015343</v>
       </c>
       <c r="J19">
-        <v>5.005990693075261</v>
+        <v>0.00074057934</v>
       </c>
       <c r="K19">
-        <v>5.005990693075261</v>
+        <v>0.00074057934</v>
       </c>
       <c r="L19">
-        <v>0.000953589023157895</v>
+        <v>0.0026898821</v>
       </c>
       <c r="M19">
-        <v>3.407922004269472</v>
+        <v>0.05642165605</v>
       </c>
       <c r="N19">
-        <v>3.407922004269472</v>
+        <v>0.05642165605</v>
       </c>
       <c r="O19">
-        <v>3.407493409744561</v>
+        <v>3.694124437366666</v>
       </c>
       <c r="P19">
-        <v>3.940611567204735</v>
+        <v>0.03786129714666667</v>
       </c>
       <c r="Q19">
-        <v>3.940611567204735</v>
+        <v>0.03786129714666667</v>
       </c>
       <c r="R19">
-        <v>4.206956348672366</v>
+        <v>0.028581117695</v>
       </c>
       <c r="S19">
-        <v>4.206956348672366</v>
+        <v>0.028581117695</v>
       </c>
       <c r="T19">
-        <v>2.538715862202718</v>
+        <v>1.847223028006667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.03246660502157895</v>
+        <v>0.03354169067452054</v>
       </c>
       <c r="D20">
-        <v>5.109614947677895</v>
+        <v>5.319590195852331</v>
       </c>
       <c r="E20">
-        <v>2.504103374543155</v>
+        <v>1.774586404430135</v>
       </c>
       <c r="F20">
-        <v>0.1269133485031579</v>
+        <v>0.1320891401032877</v>
       </c>
       <c r="G20">
-        <v>5.005963437736842</v>
+        <v>4.379276799786302</v>
       </c>
       <c r="H20">
-        <v>1.705068172310526</v>
+        <v>1.77526128093863</v>
       </c>
       <c r="I20">
-        <v>5.005963437736842</v>
+        <v>4.379276799786302</v>
       </c>
       <c r="J20">
-        <v>2.504103374543155</v>
+        <v>1.774586404430135</v>
       </c>
       <c r="K20">
-        <v>2.504103374543155</v>
+        <v>1.774586404430135</v>
       </c>
       <c r="L20">
-        <v>1.705068172310526</v>
+        <v>1.77526128093863</v>
       </c>
       <c r="M20">
-        <v>3.355515805023684</v>
+        <v>3.077269040362466</v>
       </c>
       <c r="N20">
-        <v>3.355515805023684</v>
+        <v>3.077269040362466</v>
       </c>
       <c r="O20">
-        <v>2.247832738356316</v>
+        <v>2.062693257133151</v>
       </c>
       <c r="P20">
-        <v>3.071711661530175</v>
+        <v>2.643041495051689</v>
       </c>
       <c r="Q20">
-        <v>3.071711661530174</v>
+        <v>2.643041495051689</v>
       </c>
       <c r="R20">
-        <v>2.929809589783419</v>
+        <v>2.4259277223963</v>
       </c>
       <c r="S20">
-        <v>2.929809589783419</v>
+        <v>2.4259277223963</v>
       </c>
       <c r="T20">
-        <v>2.414021647632192</v>
+        <v>2.235724251964201</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>2.225291216432352</v>
+        <v>3.406636220694736</v>
       </c>
       <c r="D21">
-        <v>-0.0001223677793042235</v>
+        <v>-0.001357140015789474</v>
       </c>
       <c r="E21">
-        <v>5.38980186805323E-05</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="F21">
-        <v>0.002627192334961447</v>
+        <v>0.005181390923157896</v>
       </c>
       <c r="G21">
-        <v>7.670671026192249</v>
+        <v>6.814890419515787</v>
       </c>
       <c r="H21">
-        <v>0.001994453787480644</v>
+        <v>0.000953589023157895</v>
       </c>
       <c r="I21">
-        <v>7.670671026192249</v>
+        <v>6.814890419515787</v>
       </c>
       <c r="J21">
-        <v>5.38980186805323E-05</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="K21">
-        <v>5.38980186805323E-05</v>
+        <v>5.005990693075261</v>
       </c>
       <c r="L21">
-        <v>0.001994453787480644</v>
+        <v>0.000953589023157895</v>
       </c>
       <c r="M21">
-        <v>3.836332739989865</v>
+        <v>3.407922004269472</v>
       </c>
       <c r="N21">
-        <v>3.836332739989865</v>
+        <v>3.407922004269472</v>
       </c>
       <c r="O21">
-        <v>3.299318898804027</v>
+        <v>3.407493409744561</v>
       </c>
       <c r="P21">
-        <v>2.55757312599947</v>
+        <v>3.940611567204735</v>
       </c>
       <c r="Q21">
-        <v>2.55757312599947</v>
+        <v>3.940611567204735</v>
       </c>
       <c r="R21">
-        <v>1.918193319004272</v>
+        <v>4.206956348672366</v>
       </c>
       <c r="S21">
-        <v>1.918193319004272</v>
+        <v>4.206956348672366</v>
       </c>
       <c r="T21">
-        <v>1.650085903164403</v>
+        <v>2.538715862202718</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.951167112277634</v>
+        <v>0.03246660502157895</v>
       </c>
       <c r="D22">
-        <v>-0.0002503768792746595</v>
+        <v>5.109614947677895</v>
       </c>
       <c r="E22">
-        <v>0.2434722769406729</v>
+        <v>2.504103374543155</v>
       </c>
       <c r="F22">
-        <v>1.055946429035</v>
+        <v>0.1269133485031579</v>
       </c>
       <c r="G22">
-        <v>0.01254785470251997</v>
+        <v>5.005963437736842</v>
       </c>
       <c r="H22">
-        <v>1.467031158321971</v>
+        <v>1.705068172310526</v>
       </c>
       <c r="I22">
-        <v>0.01254785470251997</v>
+        <v>5.005963437736842</v>
       </c>
       <c r="J22">
-        <v>0.2434722769406729</v>
+        <v>2.504103374543155</v>
       </c>
       <c r="K22">
-        <v>0.2434722769406729</v>
+        <v>2.504103374543155</v>
       </c>
       <c r="L22">
-        <v>1.467031158321971</v>
+        <v>1.705068172310526</v>
       </c>
       <c r="M22">
-        <v>0.7397895065122454</v>
+        <v>3.355515805023684</v>
       </c>
       <c r="N22">
-        <v>0.7397895065122454</v>
+        <v>3.355515805023684</v>
       </c>
       <c r="O22">
-        <v>1.143582041767375</v>
+        <v>2.247832738356316</v>
       </c>
       <c r="P22">
-        <v>0.5743504299883879</v>
+        <v>3.071711661530175</v>
       </c>
       <c r="Q22">
-        <v>0.5743504299883879</v>
+        <v>3.071711661530174</v>
       </c>
       <c r="R22">
-        <v>0.4916308917264592</v>
+        <v>2.929809589783419</v>
       </c>
       <c r="S22">
-        <v>0.4916308917264592</v>
+        <v>2.929809589783419</v>
       </c>
       <c r="T22">
-        <v>0.7883190757330872</v>
+        <v>2.414021647632192</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7438671392546355</v>
+        <v>2.225291216432352</v>
       </c>
       <c r="D23">
-        <v>0.04493336651283013</v>
+        <v>-0.0001223677793042235</v>
       </c>
       <c r="E23">
-        <v>0.04323703425380294</v>
+        <v>5.38980186805323E-05</v>
       </c>
       <c r="F23">
-        <v>1.437118756671864</v>
+        <v>0.002627192334961447</v>
       </c>
       <c r="G23">
-        <v>0.002303868019616903</v>
+        <v>7.670671026192249</v>
       </c>
       <c r="H23">
-        <v>1.478040375546571</v>
+        <v>0.001994453787480644</v>
       </c>
       <c r="I23">
-        <v>0.002303868019616903</v>
+        <v>7.670671026192249</v>
       </c>
       <c r="J23">
-        <v>0.04323703425380294</v>
+        <v>5.38980186805323E-05</v>
       </c>
       <c r="K23">
-        <v>0.04323703425380294</v>
+        <v>5.38980186805323E-05</v>
       </c>
       <c r="L23">
-        <v>1.478040375546571</v>
+        <v>0.001994453787480644</v>
       </c>
       <c r="M23">
-        <v>0.7401721217830941</v>
+        <v>3.836332739989865</v>
       </c>
       <c r="N23">
-        <v>0.7401721217830941</v>
+        <v>3.836332739989865</v>
       </c>
       <c r="O23">
-        <v>0.7414037942736079</v>
+        <v>3.299318898804027</v>
       </c>
       <c r="P23">
-        <v>0.507860425939997</v>
+        <v>2.55757312599947</v>
       </c>
       <c r="Q23">
-        <v>0.5078604259399971</v>
+        <v>2.55757312599947</v>
       </c>
       <c r="R23">
-        <v>0.3917045780184485</v>
+        <v>1.918193319004272</v>
       </c>
       <c r="S23">
-        <v>0.3917045780184485</v>
+        <v>1.918193319004272</v>
       </c>
       <c r="T23">
-        <v>0.6249167567098869</v>
+        <v>1.650085903164403</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.253314960072905</v>
+        <v>1.951167112277634</v>
       </c>
       <c r="D24">
-        <v>2.989604547419959</v>
+        <v>-0.0002503768792746595</v>
       </c>
       <c r="E24">
-        <v>2.195642819680748</v>
+        <v>0.2434722769406729</v>
       </c>
       <c r="F24">
-        <v>0.4768826445781498</v>
+        <v>1.055946429035</v>
       </c>
       <c r="G24">
-        <v>2.359723982081764</v>
+        <v>0.01254785470251997</v>
       </c>
       <c r="H24">
-        <v>0.06129398204738225</v>
+        <v>1.467031158321971</v>
       </c>
       <c r="I24">
-        <v>2.359723982081764</v>
+        <v>0.01254785470251997</v>
       </c>
       <c r="J24">
-        <v>2.195642819680748</v>
+        <v>0.2434722769406729</v>
       </c>
       <c r="K24">
-        <v>2.195642819680748</v>
+        <v>0.2434722769406729</v>
       </c>
       <c r="L24">
-        <v>0.06129398204738225</v>
+        <v>1.467031158321971</v>
       </c>
       <c r="M24">
-        <v>1.210508982064573</v>
+        <v>0.7397895065122454</v>
       </c>
       <c r="N24">
-        <v>1.210508982064573</v>
+        <v>0.7397895065122454</v>
       </c>
       <c r="O24">
-        <v>1.224777641400684</v>
+        <v>1.143582041767375</v>
       </c>
       <c r="P24">
-        <v>1.538886927936632</v>
+        <v>0.5743504299883879</v>
       </c>
       <c r="Q24">
-        <v>1.538886927936632</v>
+        <v>0.5743504299883879</v>
       </c>
       <c r="R24">
-        <v>1.703075900872661</v>
+        <v>0.4916308917264592</v>
       </c>
       <c r="S24">
-        <v>1.703075900872661</v>
+        <v>0.4916308917264592</v>
       </c>
       <c r="T24">
-        <v>1.556077155980151</v>
+        <v>0.7883190757330872</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.000387433700735926</v>
+        <v>0.7438671392546355</v>
       </c>
       <c r="D25">
-        <v>1.089884389547288</v>
+        <v>0.04493336651283013</v>
       </c>
       <c r="E25">
-        <v>0.0009851134221014234</v>
+        <v>0.04323703425380294</v>
       </c>
       <c r="F25">
-        <v>0.3961782963993181</v>
+        <v>1.437118756671864</v>
       </c>
       <c r="G25">
-        <v>-3.824127051843169E-05</v>
+        <v>0.002303868019616903</v>
       </c>
       <c r="H25">
-        <v>1.309209376322907</v>
+        <v>1.478040375546571</v>
       </c>
       <c r="I25">
-        <v>-3.824127051843169E-05</v>
+        <v>0.002303868019616903</v>
       </c>
       <c r="J25">
-        <v>0.0009851134221014234</v>
+        <v>0.04323703425380294</v>
       </c>
       <c r="K25">
-        <v>0.0009851134221014234</v>
+        <v>0.04323703425380294</v>
       </c>
       <c r="L25">
-        <v>1.309209376322907</v>
+        <v>1.478040375546571</v>
       </c>
       <c r="M25">
-        <v>0.6545855675261941</v>
+        <v>0.7401721217830941</v>
       </c>
       <c r="N25">
-        <v>0.6545855675261941</v>
+        <v>0.7401721217830941</v>
       </c>
       <c r="O25">
-        <v>0.4365195229177081</v>
+        <v>0.7414037942736079</v>
       </c>
       <c r="P25">
-        <v>0.4367187494914966</v>
+        <v>0.507860425939997</v>
       </c>
       <c r="Q25">
-        <v>0.4367187494914966</v>
+        <v>0.5078604259399971</v>
       </c>
       <c r="R25">
-        <v>0.3277853404741478</v>
+        <v>0.3917045780184485</v>
       </c>
       <c r="S25">
-        <v>0.3277853404741478</v>
+        <v>0.3917045780184485</v>
       </c>
       <c r="T25">
-        <v>0.4661010613536385</v>
+        <v>0.6249167567098869</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.002803107489512104</v>
+        <v>1.253314960072905</v>
       </c>
       <c r="D26">
-        <v>0.002043168524354677</v>
+        <v>2.989604547419959</v>
       </c>
       <c r="E26">
-        <v>0.6404703130824716</v>
+        <v>2.195642819680748</v>
       </c>
       <c r="F26">
-        <v>2.268916713792477</v>
+        <v>0.4768826445781498</v>
       </c>
       <c r="G26">
-        <v>-0.0002872047814168298</v>
+        <v>2.359723982081764</v>
       </c>
       <c r="H26">
-        <v>1.249658272177324</v>
+        <v>0.06129398204738225</v>
       </c>
       <c r="I26">
-        <v>-0.0002872047814168298</v>
+        <v>2.359723982081764</v>
       </c>
       <c r="J26">
-        <v>0.6404703130824716</v>
+        <v>2.195642819680748</v>
       </c>
       <c r="K26">
-        <v>0.6404703130824716</v>
+        <v>2.195642819680748</v>
       </c>
       <c r="L26">
-        <v>1.249658272177324</v>
+        <v>0.06129398204738225</v>
       </c>
       <c r="M26">
-        <v>0.6246855336979537</v>
+        <v>1.210508982064573</v>
       </c>
       <c r="N26">
-        <v>0.6246855336979537</v>
+        <v>1.210508982064573</v>
       </c>
       <c r="O26">
-        <v>0.4173913916284731</v>
+        <v>1.224777641400684</v>
       </c>
       <c r="P26">
-        <v>0.6299471268261263</v>
+        <v>1.538886927936632</v>
       </c>
       <c r="Q26">
-        <v>0.6299471268261263</v>
+        <v>1.538886927936632</v>
       </c>
       <c r="R26">
-        <v>0.6325779233902127</v>
+        <v>1.703075900872661</v>
       </c>
       <c r="S26">
-        <v>0.6325779233902127</v>
+        <v>1.703075900872661</v>
       </c>
       <c r="T26">
-        <v>0.6939340617141205</v>
+        <v>1.556077155980151</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.712282394985681</v>
+        <v>0.000387433700735926</v>
       </c>
       <c r="D27">
-        <v>2.807955566646429</v>
+        <v>1.089884389547288</v>
       </c>
       <c r="E27">
-        <v>1.837449966578746</v>
+        <v>0.0009851134221014234</v>
       </c>
       <c r="F27">
-        <v>0.2677660244023903</v>
+        <v>0.3961782963993181</v>
       </c>
       <c r="G27">
-        <v>0.06394563297129448</v>
+        <v>-3.824127051843169E-05</v>
       </c>
       <c r="H27">
-        <v>1.749504689976261</v>
+        <v>1.309209376322907</v>
       </c>
       <c r="I27">
-        <v>0.06394563297129448</v>
+        <v>-3.824127051843169E-05</v>
       </c>
       <c r="J27">
-        <v>1.837449966578746</v>
+        <v>0.0009851134221014234</v>
       </c>
       <c r="K27">
-        <v>1.837449966578746</v>
+        <v>0.0009851134221014234</v>
       </c>
       <c r="L27">
-        <v>1.749504689976261</v>
+        <v>1.309209376322907</v>
       </c>
       <c r="M27">
-        <v>0.9067251614737779</v>
+        <v>0.6545855675261941</v>
       </c>
       <c r="N27">
-        <v>0.9067251614737779</v>
+        <v>0.6545855675261941</v>
       </c>
       <c r="O27">
-        <v>1.175244239311079</v>
+        <v>0.4365195229177081</v>
       </c>
       <c r="P27">
-        <v>1.216966763175434</v>
+        <v>0.4367187494914966</v>
       </c>
       <c r="Q27">
-        <v>1.216966763175434</v>
+        <v>0.4367187494914966</v>
       </c>
       <c r="R27">
-        <v>1.372087564026262</v>
+        <v>0.3277853404741478</v>
       </c>
       <c r="S27">
-        <v>1.372087564026262</v>
+        <v>0.3277853404741478</v>
       </c>
       <c r="T27">
-        <v>1.4064840459268</v>
+        <v>0.4661010613536385</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.2626153361101904</v>
+        <v>0.002803107489512104</v>
       </c>
       <c r="D28">
-        <v>2.600540733808507</v>
+        <v>0.002043168524354677</v>
       </c>
       <c r="E28">
-        <v>0.9306939815662707</v>
+        <v>0.6404703130824716</v>
       </c>
       <c r="F28">
-        <v>0.4666206878602913</v>
+        <v>2.268916713792477</v>
       </c>
       <c r="G28">
-        <v>1.057904172687598</v>
+        <v>-0.0002872047814168298</v>
       </c>
       <c r="H28">
-        <v>1.061255963677574</v>
+        <v>1.249658272177324</v>
       </c>
       <c r="I28">
-        <v>1.057904172687598</v>
+        <v>-0.0002872047814168298</v>
       </c>
       <c r="J28">
-        <v>0.9306939815662707</v>
+        <v>0.6404703130824716</v>
       </c>
       <c r="K28">
-        <v>0.9306939815662707</v>
+        <v>0.6404703130824716</v>
       </c>
       <c r="L28">
-        <v>1.061255963677574</v>
+        <v>1.249658272177324</v>
       </c>
       <c r="M28">
-        <v>1.059580068182586</v>
+        <v>0.6246855336979537</v>
       </c>
       <c r="N28">
-        <v>1.059580068182586</v>
+        <v>0.6246855336979537</v>
       </c>
       <c r="O28">
-        <v>0.7939251574917874</v>
+        <v>0.4173913916284731</v>
       </c>
       <c r="P28">
-        <v>1.016618039310481</v>
+        <v>0.6299471268261263</v>
       </c>
       <c r="Q28">
-        <v>1.016618039310481</v>
+        <v>0.6299471268261263</v>
       </c>
       <c r="R28">
-        <v>0.9951370248744282</v>
+        <v>0.6325779233902127</v>
       </c>
       <c r="S28">
-        <v>0.9951370248744282</v>
+        <v>0.6325779233902127</v>
       </c>
       <c r="T28">
-        <v>1.063271812618405</v>
+        <v>0.6939340617141205</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.712282394985681</v>
+      </c>
+      <c r="D29">
+        <v>2.807955566646429</v>
+      </c>
+      <c r="E29">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="F29">
+        <v>0.2677660244023903</v>
+      </c>
+      <c r="G29">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="H29">
+        <v>1.749504689976261</v>
+      </c>
+      <c r="I29">
+        <v>0.06394563297129448</v>
+      </c>
+      <c r="J29">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="K29">
+        <v>1.837449966578746</v>
+      </c>
+      <c r="L29">
+        <v>1.749504689976261</v>
+      </c>
+      <c r="M29">
+        <v>0.9067251614737779</v>
+      </c>
+      <c r="N29">
+        <v>0.9067251614737779</v>
+      </c>
+      <c r="O29">
+        <v>1.175244239311079</v>
+      </c>
+      <c r="P29">
+        <v>1.216966763175434</v>
+      </c>
+      <c r="Q29">
+        <v>1.216966763175434</v>
+      </c>
+      <c r="R29">
+        <v>1.372087564026262</v>
+      </c>
+      <c r="S29">
+        <v>1.372087564026262</v>
+      </c>
+      <c r="T29">
+        <v>1.4064840459268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.2626153361101904</v>
+      </c>
+      <c r="D30">
+        <v>2.600540733808507</v>
+      </c>
+      <c r="E30">
+        <v>0.9306939815662707</v>
+      </c>
+      <c r="F30">
+        <v>0.4666206878602913</v>
+      </c>
+      <c r="G30">
+        <v>1.057904172687598</v>
+      </c>
+      <c r="H30">
+        <v>1.061255963677574</v>
+      </c>
+      <c r="I30">
+        <v>1.057904172687598</v>
+      </c>
+      <c r="J30">
+        <v>0.9306939815662707</v>
+      </c>
+      <c r="K30">
+        <v>0.9306939815662707</v>
+      </c>
+      <c r="L30">
+        <v>1.061255963677574</v>
+      </c>
+      <c r="M30">
+        <v>1.059580068182586</v>
+      </c>
+      <c r="N30">
+        <v>1.059580068182586</v>
+      </c>
+      <c r="O30">
+        <v>0.7939251574917874</v>
+      </c>
+      <c r="P30">
+        <v>1.016618039310481</v>
+      </c>
+      <c r="Q30">
+        <v>1.016618039310481</v>
+      </c>
+      <c r="R30">
+        <v>0.9951370248744282</v>
+      </c>
+      <c r="S30">
+        <v>0.9951370248744282</v>
+      </c>
+      <c r="T30">
+        <v>1.063271812618405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.431723241018891</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>5.721186622961275</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.791454830739619</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.04627455203015916</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>2.375468013095546</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.05634646698588139</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>2.375468013095546</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.791454830739619</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.791454830739619</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.05634646698588139</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.215907240040714</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.215907240040714</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.954512573700106</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.407756436940349</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.407756436940349</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.503681035390166</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.503681035390166</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.737075621138562</v>
       </c>
     </row>
